--- a/data/dummy_data.xlsx
+++ b/data/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Important\Work\Bank Indonesia\LLD-Bank\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61EE90-599D-43F3-BF53-9FFE1942D088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596C698-AFBD-4B16-80CD-3D2F0AD6108C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3305C36E-99D1-40BD-AB26-E479BFC12904}"/>
   </bookViews>
@@ -843,9 +843,6 @@
     <t xml:space="preserve">SAaaa00000a0a284040a0a04                          </t>
   </si>
   <si>
-    <t xml:space="preserve">RPKBUNP SPAN VALAS U GD PRIJADI PRAPTOSUHARDJO                                                                                                                                                                                                            </t>
-  </si>
-  <si>
     <t>NCBKSAJE101</t>
   </si>
   <si>
@@ -2404,6 +2401,9 @@
   </si>
   <si>
     <t xml:space="preserve">BPD Jatim                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t>RPKBUNP SPAN VALAS U GD PRIJADI PRAPTOSUHARDJO</t>
   </si>
 </sst>
 </file>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88D7A8A-DF07-40AA-BF48-EFA5A15A289E}">
   <dimension ref="A1:AB146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="M19" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5414,7 +5414,7 @@
         <v>267</v>
       </c>
       <c r="U33" t="s">
-        <v>268</v>
+        <v>788</v>
       </c>
       <c r="V33" t="s">
         <v>40</v>
@@ -5426,10 +5426,10 @@
         <v>42</v>
       </c>
       <c r="Y33" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA33" t="s">
         <v>269</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
@@ -5452,7 +5452,7 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -5485,13 +5485,13 @@
         <v>259</v>
       </c>
       <c r="R34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S34" t="s">
         <v>37</v>
       </c>
       <c r="T34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U34" t="s">
         <v>262</v>
@@ -5506,7 +5506,7 @@
         <v>42</v>
       </c>
       <c r="Y34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA34" t="s">
         <v>55</v>
@@ -5532,7 +5532,7 @@
         <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -5544,7 +5544,7 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s">
         <v>183</v>
@@ -5562,28 +5562,28 @@
         <v>136339.54999999999</v>
       </c>
       <c r="Q35" t="s">
+        <v>276</v>
+      </c>
+      <c r="R35" t="s">
         <v>277</v>
-      </c>
-      <c r="R35" t="s">
-        <v>278</v>
       </c>
       <c r="S35" t="s">
         <v>40</v>
       </c>
       <c r="T35" t="s">
+        <v>278</v>
+      </c>
+      <c r="U35" t="s">
         <v>279</v>
-      </c>
-      <c r="U35" t="s">
-        <v>280</v>
       </c>
       <c r="V35" t="s">
         <v>37</v>
       </c>
       <c r="W35" t="s">
+        <v>280</v>
+      </c>
+      <c r="X35" t="s">
         <v>281</v>
-      </c>
-      <c r="X35" t="s">
-        <v>282</v>
       </c>
       <c r="Y35" t="s">
         <v>42</v>
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -5645,28 +5645,28 @@
         <v>119</v>
       </c>
       <c r="R36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S36" t="s">
         <v>40</v>
       </c>
       <c r="T36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V36" t="s">
         <v>40</v>
       </c>
       <c r="W36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X36" t="s">
         <v>42</v>
       </c>
       <c r="Y36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA36" t="s">
         <v>55</v>
@@ -5692,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -5725,28 +5725,28 @@
         <v>119</v>
       </c>
       <c r="R37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S37" t="s">
         <v>40</v>
       </c>
       <c r="T37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V37" t="s">
         <v>40</v>
       </c>
       <c r="W37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X37" t="s">
         <v>42</v>
       </c>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA37" t="s">
         <v>55</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -5802,31 +5802,31 @@
         <v>5676.5684999999994</v>
       </c>
       <c r="Q38" t="s">
+        <v>289</v>
+      </c>
+      <c r="R38" t="s">
         <v>290</v>
-      </c>
-      <c r="R38" t="s">
-        <v>291</v>
       </c>
       <c r="S38" t="s">
         <v>37</v>
       </c>
       <c r="T38" t="s">
+        <v>291</v>
+      </c>
+      <c r="U38" t="s">
         <v>292</v>
-      </c>
-      <c r="U38" t="s">
-        <v>293</v>
       </c>
       <c r="V38" t="s">
         <v>40</v>
       </c>
       <c r="W38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X38" t="s">
         <v>42</v>
       </c>
       <c r="Y38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA38" t="s">
         <v>44</v>
@@ -5840,7 +5840,7 @@
         <v>9532</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D39">
         <v>2024</v>
@@ -5852,7 +5852,7 @@
         <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -5876,34 +5876,34 @@
         <v>106</v>
       </c>
       <c r="O39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P39">
         <v>250000</v>
       </c>
       <c r="Q39" t="s">
+        <v>298</v>
+      </c>
+      <c r="R39" t="s">
         <v>299</v>
-      </c>
-      <c r="R39" t="s">
-        <v>300</v>
       </c>
       <c r="S39" t="s">
         <v>131</v>
       </c>
       <c r="T39" t="s">
+        <v>300</v>
+      </c>
+      <c r="U39" t="s">
         <v>301</v>
-      </c>
-      <c r="U39" t="s">
-        <v>302</v>
       </c>
       <c r="V39" t="s">
         <v>37</v>
       </c>
       <c r="W39" t="s">
+        <v>302</v>
+      </c>
+      <c r="X39" t="s">
         <v>303</v>
-      </c>
-      <c r="X39" t="s">
-        <v>304</v>
       </c>
       <c r="Y39" t="s">
         <v>42</v>
@@ -5920,7 +5920,7 @@
         <v>9036</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D40">
         <v>2024</v>
@@ -5932,7 +5932,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -5965,28 +5965,28 @@
         <v>234</v>
       </c>
       <c r="R40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S40" t="s">
         <v>37</v>
       </c>
       <c r="T40" t="s">
+        <v>307</v>
+      </c>
+      <c r="U40" t="s">
         <v>308</v>
-      </c>
-      <c r="U40" t="s">
-        <v>309</v>
       </c>
       <c r="V40" t="s">
         <v>40</v>
       </c>
       <c r="W40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X40" t="s">
         <v>42</v>
       </c>
       <c r="Y40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA40" t="s">
         <v>55</v>
@@ -6000,7 +6000,7 @@
         <v>7954</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D41">
         <v>2024</v>
@@ -6012,7 +6012,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -6027,13 +6027,13 @@
         <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s">
         <v>33</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
         <v>161</v>
@@ -6045,28 +6045,28 @@
         <v>193</v>
       </c>
       <c r="R41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S41" t="s">
         <v>37</v>
       </c>
       <c r="T41" t="s">
+        <v>315</v>
+      </c>
+      <c r="U41" t="s">
         <v>316</v>
-      </c>
-      <c r="U41" t="s">
-        <v>317</v>
       </c>
       <c r="V41" t="s">
         <v>40</v>
       </c>
       <c r="W41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X41" t="s">
         <v>42</v>
       </c>
       <c r="Y41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA41" t="s">
         <v>55</v>
@@ -6080,7 +6080,7 @@
         <v>7140</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42">
         <v>2024</v>
@@ -6092,16 +6092,16 @@
         <v>10</v>
       </c>
       <c r="G42" t="s">
+        <v>320</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
         <v>321</v>
       </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>322</v>
-      </c>
-      <c r="J42" t="s">
-        <v>323</v>
       </c>
       <c r="K42" t="s">
         <v>32</v>
@@ -6122,31 +6122,31 @@
         <v>262109.50975</v>
       </c>
       <c r="Q42" t="s">
+        <v>323</v>
+      </c>
+      <c r="R42" t="s">
         <v>324</v>
-      </c>
-      <c r="R42" t="s">
-        <v>325</v>
       </c>
       <c r="S42" t="s">
         <v>37</v>
       </c>
       <c r="T42" t="s">
+        <v>325</v>
+      </c>
+      <c r="U42" t="s">
         <v>326</v>
-      </c>
-      <c r="U42" t="s">
-        <v>327</v>
       </c>
       <c r="V42" t="s">
         <v>40</v>
       </c>
       <c r="W42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X42" t="s">
         <v>42</v>
       </c>
       <c r="Y42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA42" t="s">
         <v>44</v>
@@ -6160,7 +6160,7 @@
         <v>7144</v>
       </c>
       <c r="C43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D43">
         <v>2024</v>
@@ -6172,16 +6172,16 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
       </c>
       <c r="I43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" t="s">
         <v>322</v>
-      </c>
-      <c r="J43" t="s">
-        <v>323</v>
       </c>
       <c r="K43" t="s">
         <v>32</v>
@@ -6202,31 +6202,31 @@
         <v>126848.111</v>
       </c>
       <c r="Q43" t="s">
+        <v>323</v>
+      </c>
+      <c r="R43" t="s">
         <v>324</v>
-      </c>
-      <c r="R43" t="s">
-        <v>325</v>
       </c>
       <c r="S43" t="s">
         <v>37</v>
       </c>
       <c r="T43" t="s">
+        <v>325</v>
+      </c>
+      <c r="U43" t="s">
         <v>326</v>
-      </c>
-      <c r="U43" t="s">
-        <v>327</v>
       </c>
       <c r="V43" t="s">
         <v>40</v>
       </c>
       <c r="W43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X43" t="s">
         <v>42</v>
       </c>
       <c r="Y43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA43" t="s">
         <v>44</v>
@@ -6240,7 +6240,7 @@
         <v>6484</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D44">
         <v>2024</v>
@@ -6252,7 +6252,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -6285,28 +6285,28 @@
         <v>234</v>
       </c>
       <c r="R44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S44" t="s">
         <v>37</v>
       </c>
       <c r="T44" t="s">
+        <v>333</v>
+      </c>
+      <c r="U44" t="s">
         <v>334</v>
-      </c>
-      <c r="U44" t="s">
-        <v>335</v>
       </c>
       <c r="V44" t="s">
         <v>40</v>
       </c>
       <c r="W44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA44" t="s">
         <v>55</v>
@@ -6320,7 +6320,7 @@
         <v>6419</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -6332,7 +6332,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
@@ -6341,13 +6341,13 @@
         <v>242</v>
       </c>
       <c r="J45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K45" t="s">
         <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s">
         <v>33</v>
@@ -6362,25 +6362,25 @@
         <v>16425</v>
       </c>
       <c r="Q45" t="s">
+        <v>338</v>
+      </c>
+      <c r="R45" t="s">
         <v>339</v>
-      </c>
-      <c r="R45" t="s">
-        <v>340</v>
       </c>
       <c r="S45" t="s">
         <v>66</v>
       </c>
       <c r="T45" t="s">
+        <v>340</v>
+      </c>
+      <c r="U45" t="s">
         <v>341</v>
-      </c>
-      <c r="U45" t="s">
-        <v>342</v>
       </c>
       <c r="V45" t="s">
         <v>40</v>
       </c>
       <c r="W45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
         <v>77</v>
@@ -6400,7 +6400,7 @@
         <v>6420</v>
       </c>
       <c r="C46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -6412,7 +6412,7 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -6421,13 +6421,13 @@
         <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K46" t="s">
         <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s">
         <v>33</v>
@@ -6442,25 +6442,25 @@
         <v>25000</v>
       </c>
       <c r="Q46" t="s">
+        <v>344</v>
+      </c>
+      <c r="R46" t="s">
         <v>345</v>
-      </c>
-      <c r="R46" t="s">
-        <v>346</v>
       </c>
       <c r="S46" t="s">
         <v>40</v>
       </c>
       <c r="T46" t="s">
+        <v>346</v>
+      </c>
+      <c r="U46" t="s">
         <v>347</v>
-      </c>
-      <c r="U46" t="s">
-        <v>348</v>
       </c>
       <c r="V46" t="s">
         <v>40</v>
       </c>
       <c r="W46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X46" t="s">
         <v>77</v>
@@ -6480,7 +6480,7 @@
         <v>6421</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D47">
         <v>2024</v>
@@ -6492,7 +6492,7 @@
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -6501,13 +6501,13 @@
         <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s">
         <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M47" t="s">
         <v>33</v>
@@ -6522,25 +6522,25 @@
         <v>25000</v>
       </c>
       <c r="Q47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S47" t="s">
         <v>66</v>
       </c>
       <c r="T47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V47" t="s">
         <v>40</v>
       </c>
       <c r="W47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X47" t="s">
         <v>77</v>
@@ -6560,7 +6560,7 @@
         <v>6422</v>
       </c>
       <c r="C48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D48">
         <v>2024</v>
@@ -6572,7 +6572,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -6581,13 +6581,13 @@
         <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s">
         <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M48" t="s">
         <v>33</v>
@@ -6602,31 +6602,31 @@
         <v>25000</v>
       </c>
       <c r="Q48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S48" t="s">
         <v>66</v>
       </c>
       <c r="T48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V48" t="s">
         <v>40</v>
       </c>
       <c r="W48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X48" t="s">
         <v>77</v>
       </c>
       <c r="Y48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA48" t="s">
         <v>55</v>
@@ -6640,7 +6640,7 @@
         <v>6451</v>
       </c>
       <c r="C49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D49">
         <v>2024</v>
@@ -6652,7 +6652,7 @@
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -6667,7 +6667,7 @@
         <v>32</v>
       </c>
       <c r="L49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s">
         <v>33</v>
@@ -6682,25 +6682,25 @@
         <v>5000000</v>
       </c>
       <c r="Q49" t="s">
+        <v>356</v>
+      </c>
+      <c r="R49" t="s">
         <v>357</v>
-      </c>
-      <c r="R49" t="s">
-        <v>358</v>
       </c>
       <c r="S49" t="s">
         <v>37</v>
       </c>
       <c r="T49" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V49" t="s">
         <v>40</v>
       </c>
       <c r="W49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X49" t="s">
         <v>77</v>
@@ -6720,7 +6720,7 @@
         <v>6231</v>
       </c>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D50">
         <v>2024</v>
@@ -6732,22 +6732,22 @@
         <v>30</v>
       </c>
       <c r="G50" t="s">
+        <v>359</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
         <v>360</v>
       </c>
-      <c r="H50" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" t="s">
-        <v>361</v>
-      </c>
       <c r="K50" t="s">
         <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M50" t="s">
         <v>33</v>
@@ -6762,25 +6762,25 @@
         <v>12500000</v>
       </c>
       <c r="Q50" t="s">
+        <v>356</v>
+      </c>
+      <c r="R50" t="s">
         <v>357</v>
-      </c>
-      <c r="R50" t="s">
-        <v>358</v>
       </c>
       <c r="S50" t="s">
         <v>37</v>
       </c>
       <c r="T50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V50" t="s">
         <v>40</v>
       </c>
       <c r="W50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X50" t="s">
         <v>77</v>
@@ -6800,7 +6800,7 @@
         <v>6232</v>
       </c>
       <c r="C51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D51">
         <v>2024</v>
@@ -6812,7 +6812,7 @@
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -6821,7 +6821,7 @@
         <v>32</v>
       </c>
       <c r="J51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K51" t="s">
         <v>32</v>
@@ -6842,25 +6842,25 @@
         <v>12500000</v>
       </c>
       <c r="Q51" t="s">
+        <v>356</v>
+      </c>
+      <c r="R51" t="s">
         <v>357</v>
-      </c>
-      <c r="R51" t="s">
-        <v>358</v>
       </c>
       <c r="S51" t="s">
         <v>37</v>
       </c>
       <c r="T51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V51" t="s">
         <v>40</v>
       </c>
       <c r="W51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X51" t="s">
         <v>77</v>
@@ -6880,7 +6880,7 @@
         <v>6096</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D52">
         <v>2024</v>
@@ -6892,7 +6892,7 @@
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -6907,7 +6907,7 @@
         <v>71</v>
       </c>
       <c r="L52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s">
         <v>33</v>
@@ -6922,28 +6922,28 @@
         <v>25000</v>
       </c>
       <c r="Q52" t="s">
+        <v>363</v>
+      </c>
+      <c r="R52" t="s">
         <v>364</v>
-      </c>
-      <c r="R52" t="s">
-        <v>365</v>
       </c>
       <c r="S52" t="s">
         <v>40</v>
       </c>
       <c r="T52" t="s">
+        <v>365</v>
+      </c>
+      <c r="U52" t="s">
         <v>366</v>
-      </c>
-      <c r="U52" t="s">
-        <v>367</v>
       </c>
       <c r="V52" t="s">
         <v>66</v>
       </c>
       <c r="W52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y52" t="s">
         <v>77</v>
@@ -6960,7 +6960,7 @@
         <v>6097</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D53">
         <v>2024</v>
@@ -6972,7 +6972,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -6987,7 +6987,7 @@
         <v>144</v>
       </c>
       <c r="L53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s">
         <v>33</v>
@@ -7002,28 +7002,28 @@
         <v>25000</v>
       </c>
       <c r="Q53" t="s">
+        <v>363</v>
+      </c>
+      <c r="R53" t="s">
         <v>364</v>
-      </c>
-      <c r="R53" t="s">
-        <v>365</v>
       </c>
       <c r="S53" t="s">
         <v>40</v>
       </c>
       <c r="T53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V53" t="s">
         <v>66</v>
       </c>
       <c r="W53" t="s">
+        <v>370</v>
+      </c>
+      <c r="X53" t="s">
         <v>371</v>
-      </c>
-      <c r="X53" t="s">
-        <v>372</v>
       </c>
       <c r="Y53" t="s">
         <v>77</v>
@@ -7040,7 +7040,7 @@
         <v>6098</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D54">
         <v>2024</v>
@@ -7052,7 +7052,7 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -7061,13 +7061,13 @@
         <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K54" t="s">
         <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M54" t="s">
         <v>33</v>
@@ -7082,28 +7082,28 @@
         <v>125000</v>
       </c>
       <c r="Q54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S54" t="s">
         <v>40</v>
       </c>
       <c r="T54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V54" t="s">
         <v>40</v>
       </c>
       <c r="W54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y54" t="s">
         <v>77</v>
@@ -7120,7 +7120,7 @@
         <v>6099</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D55">
         <v>2024</v>
@@ -7132,7 +7132,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -7141,13 +7141,13 @@
         <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K55" t="s">
         <v>32</v>
       </c>
       <c r="L55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M55" t="s">
         <v>33</v>
@@ -7162,28 +7162,28 @@
         <v>25000</v>
       </c>
       <c r="Q55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S55" t="s">
         <v>40</v>
       </c>
       <c r="T55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V55" t="s">
         <v>40</v>
       </c>
       <c r="W55" t="s">
+        <v>378</v>
+      </c>
+      <c r="X55" t="s">
         <v>379</v>
-      </c>
-      <c r="X55" t="s">
-        <v>380</v>
       </c>
       <c r="Y55" t="s">
         <v>77</v>
@@ -7200,7 +7200,7 @@
         <v>6100</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D56">
         <v>2024</v>
@@ -7212,7 +7212,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -7221,13 +7221,13 @@
         <v>32</v>
       </c>
       <c r="J56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K56" t="s">
         <v>71</v>
       </c>
       <c r="L56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M56" t="s">
         <v>33</v>
@@ -7242,25 +7242,25 @@
         <v>25000</v>
       </c>
       <c r="Q56" t="s">
+        <v>363</v>
+      </c>
+      <c r="R56" t="s">
         <v>364</v>
-      </c>
-      <c r="R56" t="s">
-        <v>365</v>
       </c>
       <c r="S56" t="s">
         <v>40</v>
       </c>
       <c r="T56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V56" t="s">
         <v>66</v>
       </c>
       <c r="W56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X56" t="s">
         <v>77</v>
@@ -7280,7 +7280,7 @@
         <v>6101</v>
       </c>
       <c r="C57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D57">
         <v>2024</v>
@@ -7292,7 +7292,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -7301,13 +7301,13 @@
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K57" t="s">
         <v>71</v>
       </c>
       <c r="L57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M57" t="s">
         <v>33</v>
@@ -7316,37 +7316,37 @@
         <v>106</v>
       </c>
       <c r="O57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P57">
         <v>3840100</v>
       </c>
       <c r="Q57" t="s">
+        <v>363</v>
+      </c>
+      <c r="R57" t="s">
         <v>364</v>
-      </c>
-      <c r="R57" t="s">
-        <v>365</v>
       </c>
       <c r="S57" t="s">
         <v>40</v>
       </c>
       <c r="T57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V57" t="s">
         <v>66</v>
       </c>
       <c r="W57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X57" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y57" t="s">
         <v>383</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>384</v>
       </c>
       <c r="AA57" t="s">
         <v>55</v>
@@ -7360,7 +7360,7 @@
         <v>6102</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D58">
         <v>2024</v>
@@ -7372,7 +7372,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -7381,13 +7381,13 @@
         <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K58" t="s">
         <v>242</v>
       </c>
       <c r="L58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s">
         <v>33</v>
@@ -7402,25 +7402,25 @@
         <v>12500</v>
       </c>
       <c r="Q58" t="s">
+        <v>363</v>
+      </c>
+      <c r="R58" t="s">
         <v>364</v>
-      </c>
-      <c r="R58" t="s">
-        <v>365</v>
       </c>
       <c r="S58" t="s">
         <v>40</v>
       </c>
       <c r="T58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V58" t="s">
         <v>66</v>
       </c>
       <c r="W58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X58" t="s">
         <v>223</v>
@@ -7440,7 +7440,7 @@
         <v>6103</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D59">
         <v>2024</v>
@@ -7452,7 +7452,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -7461,13 +7461,13 @@
         <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K59" t="s">
         <v>144</v>
       </c>
       <c r="L59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s">
         <v>33</v>
@@ -7482,28 +7482,28 @@
         <v>53923</v>
       </c>
       <c r="Q59" t="s">
+        <v>363</v>
+      </c>
+      <c r="R59" t="s">
         <v>364</v>
-      </c>
-      <c r="R59" t="s">
-        <v>365</v>
       </c>
       <c r="S59" t="s">
         <v>40</v>
       </c>
       <c r="T59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V59" t="s">
         <v>66</v>
       </c>
       <c r="W59" t="s">
+        <v>370</v>
+      </c>
+      <c r="X59" t="s">
         <v>371</v>
-      </c>
-      <c r="X59" t="s">
-        <v>372</v>
       </c>
       <c r="Y59" t="s">
         <v>77</v>
@@ -7520,7 +7520,7 @@
         <v>6104</v>
       </c>
       <c r="C60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D60">
         <v>2024</v>
@@ -7532,7 +7532,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -7541,13 +7541,13 @@
         <v>32</v>
       </c>
       <c r="J60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K60" t="s">
         <v>71</v>
       </c>
       <c r="L60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s">
         <v>33</v>
@@ -7556,37 +7556,37 @@
         <v>106</v>
       </c>
       <c r="O60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P60">
         <v>19159875</v>
       </c>
       <c r="Q60" t="s">
+        <v>363</v>
+      </c>
+      <c r="R60" t="s">
         <v>364</v>
-      </c>
-      <c r="R60" t="s">
-        <v>365</v>
       </c>
       <c r="S60" t="s">
         <v>40</v>
       </c>
       <c r="T60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V60" t="s">
         <v>66</v>
       </c>
       <c r="W60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X60" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y60" t="s">
         <v>383</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>384</v>
       </c>
       <c r="AA60" t="s">
         <v>55</v>
@@ -7600,7 +7600,7 @@
         <v>2419</v>
       </c>
       <c r="C61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D61">
         <v>2024</v>
@@ -7612,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -7621,7 +7621,7 @@
         <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K61" t="s">
         <v>242</v>
@@ -7642,28 +7642,28 @@
         <v>254685.37724999999</v>
       </c>
       <c r="Q61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S61" t="s">
         <v>40</v>
       </c>
       <c r="T61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V61" t="s">
         <v>37</v>
       </c>
       <c r="W61" t="s">
+        <v>392</v>
+      </c>
+      <c r="X61" t="s">
         <v>393</v>
-      </c>
-      <c r="X61" t="s">
-        <v>394</v>
       </c>
       <c r="Y61" t="s">
         <v>77</v>
@@ -7680,7 +7680,7 @@
         <v>1445</v>
       </c>
       <c r="C62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D62">
         <v>2024</v>
@@ -7692,7 +7692,7 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -7701,16 +7701,16 @@
         <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K62" t="s">
         <v>48</v>
       </c>
       <c r="L62" t="s">
+        <v>396</v>
+      </c>
+      <c r="M62" t="s">
         <v>397</v>
-      </c>
-      <c r="M62" t="s">
-        <v>398</v>
       </c>
       <c r="N62" t="s">
         <v>48</v>
@@ -7722,28 +7722,28 @@
         <v>2500673.6109999996</v>
       </c>
       <c r="Q62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S62" t="s">
         <v>40</v>
       </c>
       <c r="T62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V62" t="s">
         <v>37</v>
       </c>
       <c r="W62" t="s">
+        <v>400</v>
+      </c>
+      <c r="X62" t="s">
         <v>401</v>
-      </c>
-      <c r="X62" t="s">
-        <v>402</v>
       </c>
       <c r="Y62" t="s">
         <v>77</v>
@@ -7760,7 +7760,7 @@
         <v>1452</v>
       </c>
       <c r="C63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D63">
         <v>2024</v>
@@ -7772,7 +7772,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -7781,16 +7781,16 @@
         <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K63" t="s">
         <v>48</v>
       </c>
       <c r="L63" t="s">
+        <v>396</v>
+      </c>
+      <c r="M63" t="s">
         <v>397</v>
-      </c>
-      <c r="M63" t="s">
-        <v>398</v>
       </c>
       <c r="N63" t="s">
         <v>48</v>
@@ -7802,28 +7802,28 @@
         <v>2501010.4167500003</v>
       </c>
       <c r="Q63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S63" t="s">
         <v>40</v>
       </c>
       <c r="T63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V63" t="s">
         <v>37</v>
       </c>
       <c r="W63" t="s">
+        <v>400</v>
+      </c>
+      <c r="X63" t="s">
         <v>401</v>
-      </c>
-      <c r="X63" t="s">
-        <v>402</v>
       </c>
       <c r="Y63" t="s">
         <v>77</v>
@@ -7840,7 +7840,7 @@
         <v>1455</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D64">
         <v>2024</v>
@@ -7852,7 +7852,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H64" t="s">
         <v>29</v>
@@ -7861,16 +7861,16 @@
         <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K64" t="s">
         <v>48</v>
       </c>
       <c r="L64" t="s">
+        <v>396</v>
+      </c>
+      <c r="M64" t="s">
         <v>397</v>
-      </c>
-      <c r="M64" t="s">
-        <v>398</v>
       </c>
       <c r="N64" t="s">
         <v>48</v>
@@ -7882,28 +7882,28 @@
         <v>7501012.5</v>
       </c>
       <c r="Q64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S64" t="s">
         <v>40</v>
       </c>
       <c r="T64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V64" t="s">
         <v>37</v>
       </c>
       <c r="W64" t="s">
+        <v>400</v>
+      </c>
+      <c r="X64" t="s">
         <v>401</v>
-      </c>
-      <c r="X64" t="s">
-        <v>402</v>
       </c>
       <c r="Y64" t="s">
         <v>77</v>
@@ -7920,7 +7920,7 @@
         <v>1457</v>
       </c>
       <c r="C65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D65">
         <v>2024</v>
@@ -7932,7 +7932,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -7941,16 +7941,16 @@
         <v>32</v>
       </c>
       <c r="J65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K65" t="s">
         <v>48</v>
       </c>
       <c r="L65" t="s">
+        <v>396</v>
+      </c>
+      <c r="M65" t="s">
         <v>397</v>
-      </c>
-      <c r="M65" t="s">
-        <v>398</v>
       </c>
       <c r="N65" t="s">
         <v>48</v>
@@ -7962,28 +7962,28 @@
         <v>2501010.4167500003</v>
       </c>
       <c r="Q65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S65" t="s">
         <v>40</v>
       </c>
       <c r="T65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V65" t="s">
         <v>37</v>
       </c>
       <c r="W65" t="s">
+        <v>400</v>
+      </c>
+      <c r="X65" t="s">
         <v>401</v>
-      </c>
-      <c r="X65" t="s">
-        <v>402</v>
       </c>
       <c r="Y65" t="s">
         <v>77</v>
@@ -8000,7 +8000,7 @@
         <v>1350</v>
       </c>
       <c r="C66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D66">
         <v>2024</v>
@@ -8012,7 +8012,7 @@
         <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -8021,16 +8021,16 @@
         <v>32</v>
       </c>
       <c r="J66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K66" t="s">
         <v>48</v>
       </c>
       <c r="L66" t="s">
+        <v>396</v>
+      </c>
+      <c r="M66" t="s">
         <v>397</v>
-      </c>
-      <c r="M66" t="s">
-        <v>398</v>
       </c>
       <c r="N66" t="s">
         <v>48</v>
@@ -8042,28 +8042,28 @@
         <v>2501347.2222500001</v>
       </c>
       <c r="Q66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S66" t="s">
         <v>40</v>
       </c>
       <c r="T66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V66" t="s">
         <v>37</v>
       </c>
       <c r="W66" t="s">
+        <v>400</v>
+      </c>
+      <c r="X66" t="s">
         <v>401</v>
-      </c>
-      <c r="X66" t="s">
-        <v>402</v>
       </c>
       <c r="Y66" t="s">
         <v>77</v>
@@ -8080,7 +8080,7 @@
         <v>1195</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D67">
         <v>2024</v>
@@ -8092,7 +8092,7 @@
         <v>25</v>
       </c>
       <c r="G67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -8101,7 +8101,7 @@
         <v>32</v>
       </c>
       <c r="J67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K67" t="s">
         <v>32</v>
@@ -8122,28 +8122,28 @@
         <v>49031.25</v>
       </c>
       <c r="Q67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S67" t="s">
         <v>40</v>
       </c>
       <c r="T67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U67" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V67" t="s">
         <v>37</v>
       </c>
       <c r="W67" t="s">
+        <v>409</v>
+      </c>
+      <c r="X67" t="s">
         <v>410</v>
-      </c>
-      <c r="X67" t="s">
-        <v>411</v>
       </c>
       <c r="Y67" t="s">
         <v>77</v>
@@ -8160,7 +8160,7 @@
         <v>100670</v>
       </c>
       <c r="C68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68">
         <v>2024</v>
@@ -8172,7 +8172,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -8205,28 +8205,28 @@
         <v>35</v>
       </c>
       <c r="R68" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S68" t="s">
         <v>37</v>
       </c>
       <c r="T68" t="s">
+        <v>414</v>
+      </c>
+      <c r="U68" t="s">
         <v>415</v>
-      </c>
-      <c r="U68" t="s">
-        <v>416</v>
       </c>
       <c r="V68" t="s">
         <v>40</v>
       </c>
       <c r="W68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X68" t="s">
         <v>187</v>
       </c>
       <c r="Y68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA68" t="s">
         <v>55</v>
@@ -8240,7 +8240,7 @@
         <v>100400</v>
       </c>
       <c r="C69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D69">
         <v>2024</v>
@@ -8252,7 +8252,7 @@
         <v>25</v>
       </c>
       <c r="G69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -8282,31 +8282,31 @@
         <v>595.44574999999998</v>
       </c>
       <c r="Q69" t="s">
+        <v>419</v>
+      </c>
+      <c r="R69" t="s">
         <v>420</v>
-      </c>
-      <c r="R69" t="s">
-        <v>421</v>
       </c>
       <c r="S69" t="s">
         <v>37</v>
       </c>
       <c r="T69" t="s">
+        <v>421</v>
+      </c>
+      <c r="U69" t="s">
         <v>422</v>
-      </c>
-      <c r="U69" t="s">
-        <v>423</v>
       </c>
       <c r="V69" t="s">
         <v>40</v>
       </c>
       <c r="W69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X69" t="s">
         <v>187</v>
       </c>
       <c r="Y69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA69" t="s">
         <v>55</v>
@@ -8320,7 +8320,7 @@
         <v>100401</v>
       </c>
       <c r="C70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D70">
         <v>2024</v>
@@ -8332,7 +8332,7 @@
         <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -8362,31 +8362,31 @@
         <v>2670.6880000000001</v>
       </c>
       <c r="Q70" t="s">
+        <v>426</v>
+      </c>
+      <c r="R70" t="s">
         <v>427</v>
-      </c>
-      <c r="R70" t="s">
-        <v>428</v>
       </c>
       <c r="S70" t="s">
         <v>37</v>
       </c>
       <c r="T70" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V70" t="s">
         <v>40</v>
       </c>
       <c r="W70" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X70" t="s">
         <v>187</v>
       </c>
       <c r="Y70" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA70" t="s">
         <v>44</v>
@@ -8400,7 +8400,7 @@
         <v>100411</v>
       </c>
       <c r="C71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D71">
         <v>2024</v>
@@ -8412,7 +8412,7 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -8442,25 +8442,25 @@
         <v>707.86249999999995</v>
       </c>
       <c r="Q71" t="s">
+        <v>431</v>
+      </c>
+      <c r="R71" t="s">
         <v>432</v>
-      </c>
-      <c r="R71" t="s">
-        <v>433</v>
       </c>
       <c r="S71" t="s">
         <v>37</v>
       </c>
       <c r="T71" t="s">
+        <v>433</v>
+      </c>
+      <c r="U71" t="s">
         <v>434</v>
-      </c>
-      <c r="U71" t="s">
-        <v>435</v>
       </c>
       <c r="V71" t="s">
         <v>40</v>
       </c>
       <c r="W71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X71" t="s">
         <v>187</v>
@@ -8480,7 +8480,7 @@
         <v>100320</v>
       </c>
       <c r="C72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D72">
         <v>2024</v>
@@ -8492,7 +8492,7 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -8522,31 +8522,31 @@
         <v>11450.793249999999</v>
       </c>
       <c r="Q72" t="s">
+        <v>437</v>
+      </c>
+      <c r="R72" t="s">
         <v>438</v>
-      </c>
-      <c r="R72" t="s">
-        <v>439</v>
       </c>
       <c r="S72" t="s">
         <v>37</v>
       </c>
       <c r="T72" t="s">
+        <v>439</v>
+      </c>
+      <c r="U72" t="s">
         <v>440</v>
-      </c>
-      <c r="U72" t="s">
-        <v>441</v>
       </c>
       <c r="V72" t="s">
         <v>40</v>
       </c>
       <c r="W72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X72" t="s">
         <v>187</v>
       </c>
       <c r="Y72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA72" t="s">
         <v>44</v>
@@ -8560,7 +8560,7 @@
         <v>100138</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D73">
         <v>2024</v>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -8587,7 +8587,7 @@
         <v>110</v>
       </c>
       <c r="L73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M73" t="s">
         <v>33</v>
@@ -8605,28 +8605,28 @@
         <v>2525</v>
       </c>
       <c r="R73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S73" t="s">
         <v>40</v>
       </c>
       <c r="T73" t="s">
+        <v>444</v>
+      </c>
+      <c r="U73" t="s">
         <v>445</v>
-      </c>
-      <c r="U73" t="s">
-        <v>446</v>
       </c>
       <c r="V73" t="s">
         <v>37</v>
       </c>
       <c r="W73" t="s">
+        <v>446</v>
+      </c>
+      <c r="X73" t="s">
         <v>447</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>448</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>449</v>
       </c>
       <c r="AA73" t="s">
         <v>55</v>
@@ -8640,7 +8640,7 @@
         <v>100139</v>
       </c>
       <c r="C74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D74">
         <v>2024</v>
@@ -8652,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
@@ -8661,13 +8661,13 @@
         <v>32</v>
       </c>
       <c r="J74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s">
         <v>110</v>
       </c>
       <c r="L74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M74" t="s">
         <v>33</v>
@@ -8685,28 +8685,28 @@
         <v>98</v>
       </c>
       <c r="R74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S74" t="s">
         <v>40</v>
       </c>
       <c r="T74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V74" t="s">
         <v>37</v>
       </c>
       <c r="W74" t="s">
+        <v>452</v>
+      </c>
+      <c r="X74" t="s">
         <v>453</v>
       </c>
-      <c r="X74" t="s">
-        <v>454</v>
-      </c>
       <c r="Y74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA74" t="s">
         <v>55</v>
@@ -8720,7 +8720,7 @@
         <v>100140</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D75">
         <v>2024</v>
@@ -8732,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H75" t="s">
         <v>29</v>
@@ -8747,7 +8747,7 @@
         <v>110</v>
       </c>
       <c r="L75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M75" t="s">
         <v>33</v>
@@ -8762,31 +8762,31 @@
         <v>2425.5</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R75" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S75" t="s">
         <v>40</v>
       </c>
       <c r="T75" t="s">
+        <v>444</v>
+      </c>
+      <c r="U75" t="s">
         <v>445</v>
-      </c>
-      <c r="U75" t="s">
-        <v>446</v>
       </c>
       <c r="V75" t="s">
         <v>37</v>
       </c>
       <c r="W75" t="s">
+        <v>446</v>
+      </c>
+      <c r="X75" t="s">
         <v>447</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>448</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>449</v>
       </c>
       <c r="AA75" t="s">
         <v>55</v>
@@ -8800,7 +8800,7 @@
         <v>100141</v>
       </c>
       <c r="C76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D76">
         <v>2024</v>
@@ -8812,7 +8812,7 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H76" t="s">
         <v>29</v>
@@ -8827,7 +8827,7 @@
         <v>242</v>
       </c>
       <c r="L76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M76" t="s">
         <v>33</v>
@@ -8845,28 +8845,28 @@
         <v>98</v>
       </c>
       <c r="R76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S76" t="s">
         <v>40</v>
       </c>
       <c r="T76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V76" t="s">
         <v>37</v>
       </c>
       <c r="W76" t="s">
+        <v>458</v>
+      </c>
+      <c r="X76" t="s">
         <v>459</v>
       </c>
-      <c r="X76" t="s">
-        <v>460</v>
-      </c>
       <c r="Y76" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA76" t="s">
         <v>55</v>
@@ -8880,7 +8880,7 @@
         <v>100142</v>
       </c>
       <c r="C77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D77">
         <v>2024</v>
@@ -8892,22 +8892,22 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
+        <v>460</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>312</v>
+      </c>
+      <c r="K77" t="s">
         <v>461</v>
       </c>
-      <c r="H77" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" t="s">
-        <v>313</v>
-      </c>
-      <c r="K77" t="s">
-        <v>462</v>
-      </c>
       <c r="L77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M77" t="s">
         <v>33</v>
@@ -8925,28 +8925,28 @@
         <v>98</v>
       </c>
       <c r="R77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S77" t="s">
         <v>40</v>
       </c>
       <c r="T77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V77" t="s">
         <v>37</v>
       </c>
       <c r="W77" t="s">
+        <v>463</v>
+      </c>
+      <c r="X77" t="s">
         <v>464</v>
       </c>
-      <c r="X77" t="s">
-        <v>465</v>
-      </c>
       <c r="Y77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA77" t="s">
         <v>55</v>
@@ -8960,7 +8960,7 @@
         <v>100052</v>
       </c>
       <c r="C78" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D78">
         <v>2024</v>
@@ -8972,7 +8972,7 @@
         <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H78" t="s">
         <v>29</v>
@@ -8987,10 +8987,10 @@
         <v>144</v>
       </c>
       <c r="L78" t="s">
+        <v>396</v>
+      </c>
+      <c r="M78" t="s">
         <v>397</v>
-      </c>
-      <c r="M78" t="s">
-        <v>398</v>
       </c>
       <c r="N78" t="s">
         <v>48</v>
@@ -9002,31 +9002,31 @@
         <v>933.71199999999999</v>
       </c>
       <c r="Q78" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R78" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S78" t="s">
         <v>40</v>
       </c>
       <c r="T78" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V78" t="s">
         <v>37</v>
       </c>
       <c r="W78" t="s">
+        <v>468</v>
+      </c>
+      <c r="X78" t="s">
         <v>469</v>
       </c>
-      <c r="X78" t="s">
-        <v>470</v>
-      </c>
       <c r="Y78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA78" t="s">
         <v>55</v>
@@ -9040,7 +9040,7 @@
         <v>100053</v>
       </c>
       <c r="C79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D79">
         <v>2024</v>
@@ -9052,7 +9052,7 @@
         <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H79" t="s">
         <v>29</v>
@@ -9061,16 +9061,16 @@
         <v>32</v>
       </c>
       <c r="J79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K79" t="s">
         <v>144</v>
       </c>
       <c r="L79" t="s">
+        <v>396</v>
+      </c>
+      <c r="M79" t="s">
         <v>397</v>
-      </c>
-      <c r="M79" t="s">
-        <v>398</v>
       </c>
       <c r="N79" t="s">
         <v>48</v>
@@ -9082,31 +9082,31 @@
         <v>85552.625</v>
       </c>
       <c r="Q79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S79" t="s">
         <v>40</v>
       </c>
       <c r="T79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V79" t="s">
         <v>37</v>
       </c>
       <c r="W79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X79" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Y79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA79" t="s">
         <v>55</v>
@@ -9120,7 +9120,7 @@
         <v>100060</v>
       </c>
       <c r="C80" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D80">
         <v>2024</v>
@@ -9132,7 +9132,7 @@
         <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H80" t="s">
         <v>29</v>
@@ -9141,16 +9141,16 @@
         <v>32</v>
       </c>
       <c r="J80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K80" t="s">
         <v>30</v>
       </c>
       <c r="L80" t="s">
+        <v>396</v>
+      </c>
+      <c r="M80" t="s">
         <v>397</v>
-      </c>
-      <c r="M80" t="s">
-        <v>398</v>
       </c>
       <c r="N80" t="s">
         <v>48</v>
@@ -9162,31 +9162,31 @@
         <v>771.48925000000008</v>
       </c>
       <c r="Q80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S80" t="s">
         <v>40</v>
       </c>
       <c r="T80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V80" t="s">
         <v>37</v>
       </c>
       <c r="W80" t="s">
+        <v>474</v>
+      </c>
+      <c r="X80" t="s">
         <v>475</v>
       </c>
-      <c r="X80" t="s">
-        <v>476</v>
-      </c>
       <c r="Y80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA80" t="s">
         <v>55</v>
@@ -9200,7 +9200,7 @@
         <v>100061</v>
       </c>
       <c r="C81" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D81">
         <v>2024</v>
@@ -9212,7 +9212,7 @@
         <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -9221,16 +9221,16 @@
         <v>32</v>
       </c>
       <c r="J81" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K81" t="s">
         <v>144</v>
       </c>
       <c r="L81" t="s">
+        <v>396</v>
+      </c>
+      <c r="M81" t="s">
         <v>397</v>
-      </c>
-      <c r="M81" t="s">
-        <v>398</v>
       </c>
       <c r="N81" t="s">
         <v>48</v>
@@ -9242,31 +9242,31 @@
         <v>44133.18</v>
       </c>
       <c r="Q81" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S81" t="s">
         <v>40</v>
       </c>
       <c r="T81" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V81" t="s">
         <v>37</v>
       </c>
       <c r="W81" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X81" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Y81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA81" t="s">
         <v>55</v>
@@ -9280,7 +9280,7 @@
         <v>100062</v>
       </c>
       <c r="C82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D82">
         <v>2024</v>
@@ -9292,7 +9292,7 @@
         <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H82" t="s">
         <v>29</v>
@@ -9301,16 +9301,16 @@
         <v>32</v>
       </c>
       <c r="J82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K82" t="s">
         <v>71</v>
       </c>
       <c r="L82" t="s">
+        <v>396</v>
+      </c>
+      <c r="M82" t="s">
         <v>397</v>
-      </c>
-      <c r="M82" t="s">
-        <v>398</v>
       </c>
       <c r="N82" t="s">
         <v>48</v>
@@ -9322,31 +9322,31 @@
         <v>708.29224999999997</v>
       </c>
       <c r="Q82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R82" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S82" t="s">
         <v>40</v>
       </c>
       <c r="T82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U82" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="V82" t="s">
         <v>37</v>
       </c>
       <c r="W82" t="s">
+        <v>481</v>
+      </c>
+      <c r="X82" t="s">
         <v>482</v>
       </c>
-      <c r="X82" t="s">
-        <v>483</v>
-      </c>
       <c r="Y82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA82" t="s">
         <v>55</v>
@@ -9360,7 +9360,7 @@
         <v>99913</v>
       </c>
       <c r="C83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D83">
         <v>2024</v>
@@ -9372,7 +9372,7 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H83" t="s">
         <v>29</v>
@@ -9402,31 +9402,31 @@
         <v>1383.259</v>
       </c>
       <c r="Q83" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S83" t="s">
         <v>37</v>
       </c>
       <c r="T83" t="s">
+        <v>485</v>
+      </c>
+      <c r="U83" t="s">
         <v>486</v>
-      </c>
-      <c r="U83" t="s">
-        <v>487</v>
       </c>
       <c r="V83" t="s">
         <v>40</v>
       </c>
       <c r="W83" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X83" t="s">
         <v>187</v>
       </c>
       <c r="Y83" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA83" t="s">
         <v>55</v>
@@ -9440,7 +9440,7 @@
         <v>99822</v>
       </c>
       <c r="C84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D84">
         <v>2024</v>
@@ -9452,7 +9452,7 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H84" t="s">
         <v>29</v>
@@ -9482,31 +9482,31 @@
         <v>583.82924999999989</v>
       </c>
       <c r="Q84" t="s">
+        <v>490</v>
+      </c>
+      <c r="R84" t="s">
         <v>491</v>
-      </c>
-      <c r="R84" t="s">
-        <v>492</v>
       </c>
       <c r="S84" t="s">
         <v>37</v>
       </c>
       <c r="T84" t="s">
+        <v>492</v>
+      </c>
+      <c r="U84" t="s">
         <v>493</v>
-      </c>
-      <c r="U84" t="s">
-        <v>494</v>
       </c>
       <c r="V84" t="s">
         <v>40</v>
       </c>
       <c r="W84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X84" t="s">
         <v>187</v>
       </c>
       <c r="Y84" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA84" t="s">
         <v>55</v>
@@ -9520,7 +9520,7 @@
         <v>99765</v>
       </c>
       <c r="C85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D85">
         <v>2024</v>
@@ -9532,7 +9532,7 @@
         <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H85" t="s">
         <v>29</v>
@@ -9562,31 +9562,31 @@
         <v>4168.3109999999997</v>
       </c>
       <c r="Q85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R85" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S85" t="s">
         <v>37</v>
       </c>
       <c r="T85" t="s">
+        <v>498</v>
+      </c>
+      <c r="U85" t="s">
         <v>499</v>
-      </c>
-      <c r="U85" t="s">
-        <v>500</v>
       </c>
       <c r="V85" t="s">
         <v>40</v>
       </c>
       <c r="W85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="X85" t="s">
         <v>187</v>
       </c>
       <c r="Y85" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA85" t="s">
         <v>44</v>
@@ -9600,7 +9600,7 @@
         <v>99766</v>
       </c>
       <c r="C86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D86">
         <v>2024</v>
@@ -9612,7 +9612,7 @@
         <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H86" t="s">
         <v>29</v>
@@ -9642,31 +9642,31 @@
         <v>5418.6189999999997</v>
       </c>
       <c r="Q86" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R86" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S86" t="s">
         <v>37</v>
       </c>
       <c r="T86" t="s">
+        <v>498</v>
+      </c>
+      <c r="U86" t="s">
         <v>499</v>
-      </c>
-      <c r="U86" t="s">
-        <v>500</v>
       </c>
       <c r="V86" t="s">
         <v>40</v>
       </c>
       <c r="W86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="X86" t="s">
         <v>187</v>
       </c>
       <c r="Y86" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA86" t="s">
         <v>44</v>
@@ -9680,7 +9680,7 @@
         <v>99549</v>
       </c>
       <c r="C87" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D87">
         <v>2024</v>
@@ -9692,7 +9692,7 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H87" t="s">
         <v>29</v>
@@ -9725,28 +9725,28 @@
         <v>193</v>
       </c>
       <c r="R87" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S87" t="s">
         <v>37</v>
       </c>
       <c r="T87" t="s">
+        <v>504</v>
+      </c>
+      <c r="U87" t="s">
         <v>505</v>
-      </c>
-      <c r="U87" t="s">
-        <v>506</v>
       </c>
       <c r="V87" t="s">
         <v>40</v>
       </c>
       <c r="W87" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="X87" t="s">
         <v>187</v>
       </c>
       <c r="Y87" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AA87" t="s">
         <v>55</v>
@@ -9760,7 +9760,7 @@
         <v>98383</v>
       </c>
       <c r="C88" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D88">
         <v>2024</v>
@@ -9772,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H88" t="s">
         <v>29</v>
@@ -9781,13 +9781,13 @@
         <v>48</v>
       </c>
       <c r="J88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K88" t="s">
         <v>32</v>
       </c>
       <c r="L88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M88" t="s">
         <v>33</v>
@@ -9802,31 +9802,31 @@
         <v>404.21674999999999</v>
       </c>
       <c r="Q88" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R88" t="s">
         <v>510</v>
-      </c>
-      <c r="R88" t="s">
-        <v>511</v>
       </c>
       <c r="S88" t="s">
         <v>66</v>
       </c>
       <c r="T88" t="s">
+        <v>511</v>
+      </c>
+      <c r="U88" t="s">
         <v>512</v>
-      </c>
-      <c r="U88" t="s">
-        <v>513</v>
       </c>
       <c r="V88" t="s">
         <v>40</v>
       </c>
       <c r="W88" t="s">
+        <v>513</v>
+      </c>
+      <c r="X88" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y88" t="s">
         <v>514</v>
-      </c>
-      <c r="X88" t="s">
-        <v>449</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>515</v>
       </c>
       <c r="AA88" t="s">
         <v>55</v>
@@ -9840,7 +9840,7 @@
         <v>98384</v>
       </c>
       <c r="C89" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D89">
         <v>2024</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H89" t="s">
         <v>29</v>
@@ -9861,13 +9861,13 @@
         <v>88</v>
       </c>
       <c r="J89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K89" t="s">
         <v>32</v>
       </c>
       <c r="L89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M89" t="s">
         <v>33</v>
@@ -9882,31 +9882,31 @@
         <v>1072.1675</v>
       </c>
       <c r="Q89" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R89" t="s">
         <v>517</v>
-      </c>
-      <c r="R89" t="s">
-        <v>518</v>
       </c>
       <c r="S89" t="s">
         <v>66</v>
       </c>
       <c r="T89" t="s">
+        <v>518</v>
+      </c>
+      <c r="U89" t="s">
         <v>519</v>
-      </c>
-      <c r="U89" t="s">
-        <v>520</v>
       </c>
       <c r="V89" t="s">
         <v>40</v>
       </c>
       <c r="W89" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA89" t="s">
         <v>55</v>
@@ -9920,7 +9920,7 @@
         <v>98387</v>
       </c>
       <c r="C90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D90">
         <v>2024</v>
@@ -9932,22 +9932,22 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
+        <v>521</v>
+      </c>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" t="s">
         <v>522</v>
       </c>
-      <c r="H90" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" t="s">
-        <v>523</v>
-      </c>
       <c r="J90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K90" t="s">
         <v>32</v>
       </c>
       <c r="L90" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M90" t="s">
         <v>33</v>
@@ -9965,28 +9965,28 @@
         <v>2241</v>
       </c>
       <c r="R90" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S90" t="s">
         <v>66</v>
       </c>
       <c r="T90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U90" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V90" t="s">
         <v>40</v>
       </c>
       <c r="W90" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AA90" t="s">
         <v>55</v>
@@ -10000,7 +10000,7 @@
         <v>98388</v>
       </c>
       <c r="C91" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D91">
         <v>2024</v>
@@ -10012,22 +10012,22 @@
         <v>2</v>
       </c>
       <c r="G91" t="s">
+        <v>526</v>
+      </c>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s">
         <v>527</v>
       </c>
-      <c r="H91" t="s">
-        <v>29</v>
-      </c>
-      <c r="I91" t="s">
-        <v>528</v>
-      </c>
       <c r="J91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K91" t="s">
         <v>32</v>
       </c>
       <c r="L91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M91" t="s">
         <v>33</v>
@@ -10045,28 +10045,28 @@
         <v>2241</v>
       </c>
       <c r="R91" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S91" t="s">
         <v>66</v>
       </c>
       <c r="T91" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U91" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V91" t="s">
         <v>40</v>
       </c>
       <c r="W91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA91" t="s">
         <v>55</v>
@@ -10080,7 +10080,7 @@
         <v>98389</v>
       </c>
       <c r="C92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D92">
         <v>2024</v>
@@ -10092,7 +10092,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H92" t="s">
         <v>29</v>
@@ -10101,13 +10101,13 @@
         <v>30</v>
       </c>
       <c r="J92" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K92" t="s">
         <v>32</v>
       </c>
       <c r="L92" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M92" t="s">
         <v>33</v>
@@ -10125,28 +10125,28 @@
         <v>2241</v>
       </c>
       <c r="R92" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S92" t="s">
         <v>66</v>
       </c>
       <c r="T92" t="s">
+        <v>533</v>
+      </c>
+      <c r="U92" t="s">
         <v>534</v>
-      </c>
-      <c r="U92" t="s">
-        <v>535</v>
       </c>
       <c r="V92" t="s">
         <v>40</v>
       </c>
       <c r="W92" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y92" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA92" t="s">
         <v>55</v>
@@ -10160,7 +10160,7 @@
         <v>98390</v>
       </c>
       <c r="C93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D93">
         <v>2024</v>
@@ -10172,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H93" t="s">
         <v>29</v>
@@ -10181,13 +10181,13 @@
         <v>30</v>
       </c>
       <c r="J93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K93" t="s">
         <v>32</v>
       </c>
       <c r="L93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M93" t="s">
         <v>33</v>
@@ -10205,28 +10205,28 @@
         <v>2241</v>
       </c>
       <c r="R93" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S93" t="s">
         <v>66</v>
       </c>
       <c r="T93" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U93" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V93" t="s">
         <v>40</v>
       </c>
       <c r="W93" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA93" t="s">
         <v>55</v>
@@ -10240,7 +10240,7 @@
         <v>98391</v>
       </c>
       <c r="C94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D94">
         <v>2024</v>
@@ -10252,22 +10252,22 @@
         <v>2</v>
       </c>
       <c r="G94" t="s">
+        <v>540</v>
+      </c>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s">
         <v>541</v>
       </c>
-      <c r="H94" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" t="s">
-        <v>542</v>
-      </c>
       <c r="J94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K94" t="s">
         <v>32</v>
       </c>
       <c r="L94" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M94" t="s">
         <v>33</v>
@@ -10285,28 +10285,28 @@
         <v>2241</v>
       </c>
       <c r="R94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S94" t="s">
         <v>66</v>
       </c>
       <c r="T94" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U94" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V94" t="s">
         <v>40</v>
       </c>
       <c r="W94" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X94" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y94" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA94" t="s">
         <v>55</v>
@@ -10320,7 +10320,7 @@
         <v>98392</v>
       </c>
       <c r="C95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D95">
         <v>2024</v>
@@ -10332,7 +10332,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H95" t="s">
         <v>29</v>
@@ -10341,13 +10341,13 @@
         <v>88</v>
       </c>
       <c r="J95" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K95" t="s">
         <v>32</v>
       </c>
       <c r="L95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M95" t="s">
         <v>33</v>
@@ -10365,28 +10365,28 @@
         <v>2241</v>
       </c>
       <c r="R95" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S95" t="s">
         <v>66</v>
       </c>
       <c r="T95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U95" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V95" t="s">
         <v>40</v>
       </c>
       <c r="W95" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y95" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AA95" t="s">
         <v>55</v>
@@ -10400,7 +10400,7 @@
         <v>98393</v>
       </c>
       <c r="C96" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D96">
         <v>2024</v>
@@ -10412,7 +10412,7 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H96" t="s">
         <v>29</v>
@@ -10421,13 +10421,13 @@
         <v>106</v>
       </c>
       <c r="J96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K96" t="s">
         <v>32</v>
       </c>
       <c r="L96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M96" t="s">
         <v>33</v>
@@ -10445,28 +10445,28 @@
         <v>2241</v>
       </c>
       <c r="R96" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S96" t="s">
         <v>66</v>
       </c>
       <c r="T96" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U96" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V96" t="s">
         <v>40</v>
       </c>
       <c r="W96" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X96" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y96" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AA96" t="s">
         <v>55</v>
@@ -10480,7 +10480,7 @@
         <v>98394</v>
       </c>
       <c r="C97" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D97">
         <v>2024</v>
@@ -10492,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H97" t="s">
         <v>29</v>
@@ -10501,13 +10501,13 @@
         <v>88</v>
       </c>
       <c r="J97" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K97" t="s">
         <v>32</v>
       </c>
       <c r="L97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M97" t="s">
         <v>33</v>
@@ -10525,28 +10525,28 @@
         <v>2241</v>
       </c>
       <c r="R97" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S97" t="s">
         <v>66</v>
       </c>
       <c r="T97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U97" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V97" t="s">
         <v>40</v>
       </c>
       <c r="W97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y97" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA97" t="s">
         <v>55</v>
@@ -10560,7 +10560,7 @@
         <v>97945</v>
       </c>
       <c r="C98" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D98">
         <v>2024</v>
@@ -10572,7 +10572,7 @@
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H98" t="s">
         <v>29</v>
@@ -10605,28 +10605,28 @@
         <v>193</v>
       </c>
       <c r="R98" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S98" t="s">
         <v>37</v>
       </c>
       <c r="T98" t="s">
+        <v>557</v>
+      </c>
+      <c r="U98" t="s">
         <v>558</v>
-      </c>
-      <c r="U98" t="s">
-        <v>559</v>
       </c>
       <c r="V98" t="s">
         <v>40</v>
       </c>
       <c r="W98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="X98" t="s">
         <v>187</v>
       </c>
       <c r="Y98" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA98" t="s">
         <v>55</v>
@@ -10640,7 +10640,7 @@
         <v>96149</v>
       </c>
       <c r="C99" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D99">
         <v>2024</v>
@@ -10652,13 +10652,13 @@
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H99" t="s">
         <v>29</v>
       </c>
       <c r="I99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J99" t="s">
         <v>31</v>
@@ -10673,7 +10673,7 @@
         <v>33</v>
       </c>
       <c r="N99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O99" t="s">
         <v>161</v>
@@ -10685,28 +10685,28 @@
         <v>193</v>
       </c>
       <c r="R99" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S99" t="s">
         <v>37</v>
       </c>
       <c r="T99" t="s">
+        <v>563</v>
+      </c>
+      <c r="U99" t="s">
         <v>564</v>
-      </c>
-      <c r="U99" t="s">
-        <v>565</v>
       </c>
       <c r="V99" t="s">
         <v>40</v>
       </c>
       <c r="W99" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="X99" t="s">
         <v>187</v>
       </c>
       <c r="Y99" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA99" t="s">
         <v>55</v>
@@ -10720,7 +10720,7 @@
         <v>95897</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D100">
         <v>2024</v>
@@ -10732,7 +10732,7 @@
         <v>28</v>
       </c>
       <c r="G100" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H100" t="s">
         <v>29</v>
@@ -10762,10 +10762,10 @@
         <v>11305.279</v>
       </c>
       <c r="Q100" t="s">
+        <v>568</v>
+      </c>
+      <c r="R100" t="s">
         <v>569</v>
-      </c>
-      <c r="R100" t="s">
-        <v>570</v>
       </c>
       <c r="S100" t="s">
         <v>37</v>
@@ -10774,19 +10774,19 @@
         <v>220</v>
       </c>
       <c r="U100" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="V100" t="s">
         <v>40</v>
       </c>
       <c r="W100" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="X100" t="s">
         <v>187</v>
       </c>
       <c r="Y100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AA100" t="s">
         <v>44</v>
@@ -10800,7 +10800,7 @@
         <v>94318</v>
       </c>
       <c r="C101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D101">
         <v>2024</v>
@@ -10812,7 +10812,7 @@
         <v>28</v>
       </c>
       <c r="G101" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H101" t="s">
         <v>29</v>
@@ -10842,31 +10842,31 @@
         <v>2851.7759999999998</v>
       </c>
       <c r="Q101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R101" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S101" t="s">
         <v>37</v>
       </c>
       <c r="T101" t="s">
+        <v>575</v>
+      </c>
+      <c r="U101" t="s">
         <v>576</v>
-      </c>
-      <c r="U101" t="s">
-        <v>577</v>
       </c>
       <c r="V101" t="s">
         <v>40</v>
       </c>
       <c r="W101" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X101" t="s">
         <v>187</v>
       </c>
       <c r="Y101" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AA101" t="s">
         <v>44</v>
@@ -10880,7 +10880,7 @@
         <v>94211</v>
       </c>
       <c r="C102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D102">
         <v>2024</v>
@@ -10892,7 +10892,7 @@
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H102" t="s">
         <v>29</v>
@@ -10922,31 +10922,31 @@
         <v>3591.6470000000004</v>
       </c>
       <c r="Q102" t="s">
+        <v>580</v>
+      </c>
+      <c r="R102" t="s">
         <v>581</v>
-      </c>
-      <c r="R102" t="s">
-        <v>582</v>
       </c>
       <c r="S102" t="s">
         <v>37</v>
       </c>
       <c r="T102" t="s">
+        <v>582</v>
+      </c>
+      <c r="U102" t="s">
         <v>583</v>
-      </c>
-      <c r="U102" t="s">
-        <v>584</v>
       </c>
       <c r="V102" t="s">
         <v>40</v>
       </c>
       <c r="W102" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="X102" t="s">
         <v>187</v>
       </c>
       <c r="Y102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AA102" t="s">
         <v>55</v>
@@ -10960,7 +10960,7 @@
         <v>94132</v>
       </c>
       <c r="C103" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D103">
         <v>2024</v>
@@ -10972,13 +10972,13 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H103" t="s">
         <v>29</v>
       </c>
       <c r="I103" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J103" t="s">
         <v>192</v>
@@ -10987,46 +10987,46 @@
         <v>32</v>
       </c>
       <c r="L103" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M103" t="s">
         <v>33</v>
       </c>
       <c r="N103" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O103" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P103">
         <v>22129.358250000001</v>
       </c>
       <c r="Q103" t="s">
+        <v>588</v>
+      </c>
+      <c r="R103" t="s">
         <v>589</v>
-      </c>
-      <c r="R103" t="s">
-        <v>590</v>
       </c>
       <c r="S103" t="s">
         <v>37</v>
       </c>
       <c r="T103" t="s">
+        <v>590</v>
+      </c>
+      <c r="U103" t="s">
         <v>591</v>
-      </c>
-      <c r="U103" t="s">
-        <v>592</v>
       </c>
       <c r="V103" t="s">
         <v>40</v>
       </c>
       <c r="W103" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X103" t="s">
         <v>187</v>
       </c>
       <c r="Y103" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA103" t="s">
         <v>55</v>
@@ -11040,7 +11040,7 @@
         <v>94133</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D104">
         <v>2024</v>
@@ -11052,13 +11052,13 @@
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H104" t="s">
         <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J104" t="s">
         <v>183</v>
@@ -11067,46 +11067,46 @@
         <v>32</v>
       </c>
       <c r="L104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M104" t="s">
         <v>33</v>
       </c>
       <c r="N104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O104" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P104">
         <v>23248.278249999999</v>
       </c>
       <c r="Q104" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R104" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S104" t="s">
         <v>37</v>
       </c>
       <c r="T104" t="s">
+        <v>590</v>
+      </c>
+      <c r="U104" t="s">
         <v>591</v>
-      </c>
-      <c r="U104" t="s">
-        <v>592</v>
       </c>
       <c r="V104" t="s">
         <v>40</v>
       </c>
       <c r="W104" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X104" t="s">
         <v>187</v>
       </c>
       <c r="Y104" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA104" t="s">
         <v>55</v>
@@ -11120,7 +11120,7 @@
         <v>94136</v>
       </c>
       <c r="C105" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D105">
         <v>2024</v>
@@ -11132,13 +11132,13 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H105" t="s">
         <v>29</v>
       </c>
       <c r="I105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J105" t="s">
         <v>183</v>
@@ -11147,46 +11147,46 @@
         <v>32</v>
       </c>
       <c r="L105" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M105" t="s">
         <v>33</v>
       </c>
       <c r="N105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O105" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P105">
         <v>24431.076499999999</v>
       </c>
       <c r="Q105" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R105" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S105" t="s">
         <v>37</v>
       </c>
       <c r="T105" t="s">
+        <v>590</v>
+      </c>
+      <c r="U105" t="s">
         <v>591</v>
-      </c>
-      <c r="U105" t="s">
-        <v>592</v>
       </c>
       <c r="V105" t="s">
         <v>40</v>
       </c>
       <c r="W105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X105" t="s">
         <v>187</v>
       </c>
       <c r="Y105" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA105" t="s">
         <v>55</v>
@@ -11200,7 +11200,7 @@
         <v>94137</v>
       </c>
       <c r="C106" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D106">
         <v>2024</v>
@@ -11212,13 +11212,13 @@
         <v>28</v>
       </c>
       <c r="G106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H106" t="s">
         <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J106" t="s">
         <v>31</v>
@@ -11227,46 +11227,46 @@
         <v>32</v>
       </c>
       <c r="L106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M106" t="s">
         <v>33</v>
       </c>
       <c r="N106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O106" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P106">
         <v>24552.462500000001</v>
       </c>
       <c r="Q106" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R106" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S106" t="s">
         <v>37</v>
       </c>
       <c r="T106" t="s">
+        <v>590</v>
+      </c>
+      <c r="U106" t="s">
         <v>591</v>
-      </c>
-      <c r="U106" t="s">
-        <v>592</v>
       </c>
       <c r="V106" t="s">
         <v>40</v>
       </c>
       <c r="W106" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X106" t="s">
         <v>187</v>
       </c>
       <c r="Y106" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA106" t="s">
         <v>55</v>
@@ -11280,7 +11280,7 @@
         <v>94138</v>
       </c>
       <c r="C107" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D107">
         <v>2024</v>
@@ -11292,13 +11292,13 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H107" t="s">
         <v>29</v>
       </c>
       <c r="I107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J107" t="s">
         <v>192</v>
@@ -11307,46 +11307,46 @@
         <v>32</v>
       </c>
       <c r="L107" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M107" t="s">
         <v>33</v>
       </c>
       <c r="N107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O107" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P107">
         <v>28139.817749999998</v>
       </c>
       <c r="Q107" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R107" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S107" t="s">
         <v>37</v>
       </c>
       <c r="T107" t="s">
+        <v>590</v>
+      </c>
+      <c r="U107" t="s">
         <v>591</v>
-      </c>
-      <c r="U107" t="s">
-        <v>592</v>
       </c>
       <c r="V107" t="s">
         <v>40</v>
       </c>
       <c r="W107" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X107" t="s">
         <v>187</v>
       </c>
       <c r="Y107" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA107" t="s">
         <v>55</v>
@@ -11360,7 +11360,7 @@
         <v>94139</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D108">
         <v>2024</v>
@@ -11372,13 +11372,13 @@
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H108" t="s">
         <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J108" t="s">
         <v>192</v>
@@ -11387,46 +11387,46 @@
         <v>32</v>
       </c>
       <c r="L108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M108" t="s">
         <v>33</v>
       </c>
       <c r="N108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O108" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P108">
         <v>21546.774999999998</v>
       </c>
       <c r="Q108" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R108" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S108" t="s">
         <v>37</v>
       </c>
       <c r="T108" t="s">
+        <v>590</v>
+      </c>
+      <c r="U108" t="s">
         <v>591</v>
-      </c>
-      <c r="U108" t="s">
-        <v>592</v>
       </c>
       <c r="V108" t="s">
         <v>40</v>
       </c>
       <c r="W108" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X108" t="s">
         <v>187</v>
       </c>
       <c r="Y108" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA108" t="s">
         <v>55</v>
@@ -11440,7 +11440,7 @@
         <v>94140</v>
       </c>
       <c r="C109" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D109">
         <v>2024</v>
@@ -11452,13 +11452,13 @@
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H109" t="s">
         <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J109" t="s">
         <v>192</v>
@@ -11467,46 +11467,46 @@
         <v>32</v>
       </c>
       <c r="L109" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M109" t="s">
         <v>33</v>
       </c>
       <c r="N109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O109" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P109">
         <v>68833.548750000016</v>
       </c>
       <c r="Q109" t="s">
+        <v>588</v>
+      </c>
+      <c r="R109" t="s">
         <v>589</v>
-      </c>
-      <c r="R109" t="s">
-        <v>590</v>
       </c>
       <c r="S109" t="s">
         <v>37</v>
       </c>
       <c r="T109" t="s">
+        <v>590</v>
+      </c>
+      <c r="U109" t="s">
         <v>591</v>
-      </c>
-      <c r="U109" t="s">
-        <v>592</v>
       </c>
       <c r="V109" t="s">
         <v>40</v>
       </c>
       <c r="W109" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X109" t="s">
         <v>187</v>
       </c>
       <c r="Y109" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA109" t="s">
         <v>55</v>
@@ -11520,7 +11520,7 @@
         <v>93007</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D110">
         <v>2024</v>
@@ -11532,7 +11532,7 @@
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H110" t="s">
         <v>29</v>
@@ -11550,7 +11550,7 @@
         <v>183</v>
       </c>
       <c r="M110" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N110" t="s">
         <v>48</v>
@@ -11562,25 +11562,25 @@
         <v>12525.910750000001</v>
       </c>
       <c r="Q110" t="s">
+        <v>606</v>
+      </c>
+      <c r="R110" t="s">
         <v>607</v>
-      </c>
-      <c r="R110" t="s">
-        <v>608</v>
       </c>
       <c r="S110" t="s">
         <v>37</v>
       </c>
       <c r="T110" t="s">
+        <v>608</v>
+      </c>
+      <c r="U110" t="s">
         <v>609</v>
-      </c>
-      <c r="U110" t="s">
-        <v>610</v>
       </c>
       <c r="V110" t="s">
         <v>40</v>
       </c>
       <c r="W110" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X110" t="s">
         <v>187</v>
@@ -11600,7 +11600,7 @@
         <v>92563</v>
       </c>
       <c r="C111" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D111">
         <v>2024</v>
@@ -11612,7 +11612,7 @@
         <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H111" t="s">
         <v>29</v>
@@ -11642,31 +11642,31 @@
         <v>111314.01675</v>
       </c>
       <c r="Q111" t="s">
+        <v>612</v>
+      </c>
+      <c r="R111" t="s">
         <v>613</v>
-      </c>
-      <c r="R111" t="s">
-        <v>614</v>
       </c>
       <c r="S111" t="s">
         <v>37</v>
       </c>
       <c r="T111" t="s">
+        <v>614</v>
+      </c>
+      <c r="U111" t="s">
         <v>615</v>
-      </c>
-      <c r="U111" t="s">
-        <v>616</v>
       </c>
       <c r="V111" t="s">
         <v>40</v>
       </c>
       <c r="W111" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="X111" t="s">
         <v>187</v>
       </c>
       <c r="Y111" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AA111" t="s">
         <v>44</v>
@@ -11680,7 +11680,7 @@
         <v>92205</v>
       </c>
       <c r="C112" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D112">
         <v>2024</v>
@@ -11692,7 +11692,7 @@
         <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H112" t="s">
         <v>29</v>
@@ -11722,25 +11722,25 @@
         <v>312.42500000000001</v>
       </c>
       <c r="Q112" t="s">
+        <v>618</v>
+      </c>
+      <c r="R112" t="s">
         <v>619</v>
-      </c>
-      <c r="R112" t="s">
-        <v>620</v>
       </c>
       <c r="S112" t="s">
         <v>37</v>
       </c>
       <c r="T112" t="s">
+        <v>620</v>
+      </c>
+      <c r="U112" t="s">
         <v>621</v>
-      </c>
-      <c r="U112" t="s">
-        <v>622</v>
       </c>
       <c r="V112" t="s">
         <v>40</v>
       </c>
       <c r="W112" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="X112" t="s">
         <v>187</v>
@@ -11760,7 +11760,7 @@
         <v>90847</v>
       </c>
       <c r="C113" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D113">
         <v>2024</v>
@@ -11772,7 +11772,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H113" t="s">
         <v>29</v>
@@ -11802,25 +11802,25 @@
         <v>853.05525</v>
       </c>
       <c r="Q113" t="s">
+        <v>624</v>
+      </c>
+      <c r="R113" t="s">
         <v>625</v>
-      </c>
-      <c r="R113" t="s">
-        <v>626</v>
       </c>
       <c r="S113" t="s">
         <v>37</v>
       </c>
       <c r="T113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U113" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="V113" t="s">
         <v>40</v>
       </c>
       <c r="W113" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X113" t="s">
         <v>187</v>
@@ -11840,7 +11840,7 @@
         <v>90848</v>
       </c>
       <c r="C114" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D114">
         <v>2024</v>
@@ -11852,7 +11852,7 @@
         <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H114" t="s">
         <v>29</v>
@@ -11882,25 +11882,25 @@
         <v>1269.434</v>
       </c>
       <c r="Q114" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R114" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S114" t="s">
         <v>37</v>
       </c>
       <c r="T114" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U114" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="V114" t="s">
         <v>40</v>
       </c>
       <c r="W114" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X114" t="s">
         <v>187</v>
@@ -11920,7 +11920,7 @@
         <v>88638</v>
       </c>
       <c r="C115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D115">
         <v>2024</v>
@@ -11932,25 +11932,25 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
+        <v>630</v>
+      </c>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" t="s">
+        <v>312</v>
+      </c>
+      <c r="K115" t="s">
         <v>631</v>
       </c>
-      <c r="H115" t="s">
-        <v>29</v>
-      </c>
-      <c r="I115" t="s">
-        <v>32</v>
-      </c>
-      <c r="J115" t="s">
-        <v>313</v>
-      </c>
-      <c r="K115" t="s">
-        <v>632</v>
-      </c>
       <c r="L115" t="s">
+        <v>396</v>
+      </c>
+      <c r="M115" t="s">
         <v>397</v>
-      </c>
-      <c r="M115" t="s">
-        <v>398</v>
       </c>
       <c r="N115" t="s">
         <v>48</v>
@@ -11962,31 +11962,31 @@
         <v>1750000</v>
       </c>
       <c r="Q115" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S115" t="s">
         <v>40</v>
       </c>
       <c r="T115" t="s">
+        <v>632</v>
+      </c>
+      <c r="U115" t="s">
         <v>633</v>
-      </c>
-      <c r="U115" t="s">
-        <v>634</v>
       </c>
       <c r="V115" t="s">
         <v>37</v>
       </c>
       <c r="W115" t="s">
+        <v>634</v>
+      </c>
+      <c r="X115" t="s">
         <v>635</v>
       </c>
-      <c r="X115" t="s">
-        <v>636</v>
-      </c>
       <c r="Y115" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AA115" t="s">
         <v>55</v>
@@ -12000,7 +12000,7 @@
         <v>88639</v>
       </c>
       <c r="C116" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D116">
         <v>2024</v>
@@ -12012,25 +12012,25 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
+        <v>630</v>
+      </c>
+      <c r="H116" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" t="s">
+        <v>32</v>
+      </c>
+      <c r="J116" t="s">
+        <v>312</v>
+      </c>
+      <c r="K116" t="s">
         <v>631</v>
       </c>
-      <c r="H116" t="s">
-        <v>29</v>
-      </c>
-      <c r="I116" t="s">
-        <v>32</v>
-      </c>
-      <c r="J116" t="s">
-        <v>313</v>
-      </c>
-      <c r="K116" t="s">
-        <v>632</v>
-      </c>
       <c r="L116" t="s">
+        <v>396</v>
+      </c>
+      <c r="M116" t="s">
         <v>397</v>
-      </c>
-      <c r="M116" t="s">
-        <v>398</v>
       </c>
       <c r="N116" t="s">
         <v>48</v>
@@ -12042,31 +12042,31 @@
         <v>9975</v>
       </c>
       <c r="Q116" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S116" t="s">
         <v>40</v>
       </c>
       <c r="T116" t="s">
+        <v>632</v>
+      </c>
+      <c r="U116" t="s">
         <v>633</v>
-      </c>
-      <c r="U116" t="s">
-        <v>634</v>
       </c>
       <c r="V116" t="s">
         <v>37</v>
       </c>
       <c r="W116" t="s">
+        <v>634</v>
+      </c>
+      <c r="X116" t="s">
         <v>635</v>
       </c>
-      <c r="X116" t="s">
-        <v>636</v>
-      </c>
       <c r="Y116" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AA116" t="s">
         <v>55</v>
@@ -12080,7 +12080,7 @@
         <v>88640</v>
       </c>
       <c r="C117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D117">
         <v>2024</v>
@@ -12092,7 +12092,7 @@
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H117" t="s">
         <v>29</v>
@@ -12101,16 +12101,16 @@
         <v>32</v>
       </c>
       <c r="J117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K117" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L117" t="s">
+        <v>396</v>
+      </c>
+      <c r="M117" t="s">
         <v>397</v>
-      </c>
-      <c r="M117" t="s">
-        <v>398</v>
       </c>
       <c r="N117" t="s">
         <v>48</v>
@@ -12122,31 +12122,31 @@
         <v>1200000</v>
       </c>
       <c r="Q117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R117" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S117" t="s">
         <v>40</v>
       </c>
       <c r="T117" t="s">
+        <v>632</v>
+      </c>
+      <c r="U117" t="s">
         <v>633</v>
-      </c>
-      <c r="U117" t="s">
-        <v>634</v>
       </c>
       <c r="V117" t="s">
         <v>37</v>
       </c>
       <c r="W117" t="s">
+        <v>634</v>
+      </c>
+      <c r="X117" t="s">
         <v>635</v>
       </c>
-      <c r="X117" t="s">
-        <v>636</v>
-      </c>
       <c r="Y117" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AA117" t="s">
         <v>55</v>
@@ -12160,7 +12160,7 @@
         <v>85262</v>
       </c>
       <c r="C118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D118">
         <v>2024</v>
@@ -12172,7 +12172,7 @@
         <v>28</v>
       </c>
       <c r="G118" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H118" t="s">
         <v>29</v>
@@ -12181,13 +12181,13 @@
         <v>32</v>
       </c>
       <c r="J118" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K118" t="s">
         <v>32</v>
       </c>
       <c r="L118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M118" t="s">
         <v>33</v>
@@ -12202,31 +12202,31 @@
         <v>250000</v>
       </c>
       <c r="Q118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R118" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S118" t="s">
         <v>37</v>
       </c>
       <c r="T118" t="s">
+        <v>640</v>
+      </c>
+      <c r="U118" t="s">
         <v>641</v>
-      </c>
-      <c r="U118" t="s">
-        <v>642</v>
       </c>
       <c r="V118" t="s">
         <v>40</v>
       </c>
       <c r="W118" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X118" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Y118" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AA118" t="s">
         <v>55</v>
@@ -12240,7 +12240,7 @@
         <v>85104</v>
       </c>
       <c r="C119" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D119">
         <v>2024</v>
@@ -12252,7 +12252,7 @@
         <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H119" t="s">
         <v>29</v>
@@ -12261,13 +12261,13 @@
         <v>32</v>
       </c>
       <c r="J119" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K119" t="s">
         <v>32</v>
       </c>
       <c r="L119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M119" t="s">
         <v>33</v>
@@ -12282,31 +12282,31 @@
         <v>3500000</v>
       </c>
       <c r="Q119" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R119" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S119" t="s">
         <v>37</v>
       </c>
       <c r="T119" t="s">
+        <v>640</v>
+      </c>
+      <c r="U119" t="s">
         <v>641</v>
-      </c>
-      <c r="U119" t="s">
-        <v>642</v>
       </c>
       <c r="V119" t="s">
         <v>40</v>
       </c>
       <c r="W119" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="X119" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Y119" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AA119" t="s">
         <v>55</v>
@@ -12320,7 +12320,7 @@
         <v>83533</v>
       </c>
       <c r="C120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D120">
         <v>2024</v>
@@ -12332,7 +12332,7 @@
         <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H120" t="s">
         <v>29</v>
@@ -12350,7 +12350,7 @@
         <v>183</v>
       </c>
       <c r="M120" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N120" t="s">
         <v>48</v>
@@ -12362,31 +12362,31 @@
         <v>6670.3559999999998</v>
       </c>
       <c r="Q120" t="s">
+        <v>645</v>
+      </c>
+      <c r="R120" t="s">
         <v>646</v>
-      </c>
-      <c r="R120" t="s">
-        <v>647</v>
       </c>
       <c r="S120" t="s">
         <v>37</v>
       </c>
       <c r="T120" t="s">
+        <v>647</v>
+      </c>
+      <c r="U120" t="s">
         <v>648</v>
-      </c>
-      <c r="U120" t="s">
-        <v>649</v>
       </c>
       <c r="V120" t="s">
         <v>40</v>
       </c>
       <c r="W120" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X120" t="s">
         <v>187</v>
       </c>
       <c r="Y120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA120" t="s">
         <v>44</v>
@@ -12400,7 +12400,7 @@
         <v>42000</v>
       </c>
       <c r="C121" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D121">
         <v>2024</v>
@@ -12412,7 +12412,7 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H121" t="s">
         <v>29</v>
@@ -12442,25 +12442,25 @@
         <v>25000000</v>
       </c>
       <c r="Q121" t="s">
+        <v>652</v>
+      </c>
+      <c r="R121" t="s">
         <v>653</v>
-      </c>
-      <c r="R121" t="s">
-        <v>654</v>
       </c>
       <c r="S121" t="s">
         <v>66</v>
       </c>
       <c r="T121" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="U121" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V121" t="s">
         <v>66</v>
       </c>
       <c r="W121" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="X121" t="s">
         <v>187</v>
@@ -12480,7 +12480,7 @@
         <v>41929</v>
       </c>
       <c r="C122" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D122">
         <v>2024</v>
@@ -12492,19 +12492,19 @@
         <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H122" t="s">
         <v>29</v>
       </c>
       <c r="I122" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J122" t="s">
         <v>127</v>
       </c>
       <c r="K122" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L122" t="s">
         <v>118</v>
@@ -12513,7 +12513,7 @@
         <v>33</v>
       </c>
       <c r="N122" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O122" t="s">
         <v>49</v>
@@ -12522,25 +12522,25 @@
         <v>22499738.949999999</v>
       </c>
       <c r="Q122" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R122" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S122" t="s">
         <v>66</v>
       </c>
       <c r="T122" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U122" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V122" t="s">
         <v>66</v>
       </c>
       <c r="W122" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X122" t="s">
         <v>187</v>
@@ -12560,7 +12560,7 @@
         <v>41937</v>
       </c>
       <c r="C123" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D123">
         <v>2024</v>
@@ -12572,19 +12572,19 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
+        <v>662</v>
+      </c>
+      <c r="H123" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" t="s">
         <v>663</v>
-      </c>
-      <c r="H123" t="s">
-        <v>29</v>
-      </c>
-      <c r="I123" t="s">
-        <v>664</v>
       </c>
       <c r="J123" t="s">
         <v>127</v>
       </c>
       <c r="K123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L123" t="s">
         <v>118</v>
@@ -12593,7 +12593,7 @@
         <v>33</v>
       </c>
       <c r="N123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O123" t="s">
         <v>49</v>
@@ -12602,25 +12602,25 @@
         <v>1500</v>
       </c>
       <c r="Q123" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R123" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S123" t="s">
         <v>66</v>
       </c>
       <c r="T123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U123" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V123" t="s">
         <v>66</v>
       </c>
       <c r="W123" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X123" t="s">
         <v>187</v>
@@ -12640,7 +12640,7 @@
         <v>41946</v>
       </c>
       <c r="C124" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D124">
         <v>2024</v>
@@ -12652,19 +12652,19 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
+        <v>667</v>
+      </c>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" t="s">
         <v>668</v>
-      </c>
-      <c r="H124" t="s">
-        <v>29</v>
-      </c>
-      <c r="I124" t="s">
-        <v>669</v>
       </c>
       <c r="J124" t="s">
         <v>127</v>
       </c>
       <c r="K124" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L124" t="s">
         <v>118</v>
@@ -12673,7 +12673,7 @@
         <v>33</v>
       </c>
       <c r="N124" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O124" t="s">
         <v>49</v>
@@ -12682,25 +12682,25 @@
         <v>24028750</v>
       </c>
       <c r="Q124" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R124" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S124" t="s">
         <v>66</v>
       </c>
       <c r="T124" t="s">
+        <v>670</v>
+      </c>
+      <c r="U124" t="s">
         <v>671</v>
-      </c>
-      <c r="U124" t="s">
-        <v>672</v>
       </c>
       <c r="V124" t="s">
         <v>66</v>
       </c>
       <c r="W124" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="X124" t="s">
         <v>187</v>
@@ -12720,7 +12720,7 @@
         <v>33068</v>
       </c>
       <c r="C125" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D125">
         <v>2024</v>
@@ -12732,19 +12732,19 @@
         <v>3</v>
       </c>
       <c r="G125" t="s">
+        <v>674</v>
+      </c>
+      <c r="H125" t="s">
         <v>675</v>
       </c>
-      <c r="H125" t="s">
-        <v>676</v>
-      </c>
       <c r="I125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J125" t="s">
         <v>217</v>
       </c>
       <c r="K125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L125" t="s">
         <v>118</v>
@@ -12753,34 +12753,34 @@
         <v>33</v>
       </c>
       <c r="N125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O125" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P125">
         <v>6709950</v>
       </c>
       <c r="Q125" t="s">
+        <v>677</v>
+      </c>
+      <c r="R125" t="s">
         <v>678</v>
-      </c>
-      <c r="R125" t="s">
-        <v>679</v>
       </c>
       <c r="S125" t="s">
         <v>66</v>
       </c>
       <c r="T125" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U125" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V125" t="s">
         <v>66</v>
       </c>
       <c r="W125" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="X125" t="s">
         <v>187</v>
@@ -12800,7 +12800,7 @@
         <v>32972</v>
       </c>
       <c r="C126" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D126">
         <v>2024</v>
@@ -12812,10 +12812,10 @@
         <v>28</v>
       </c>
       <c r="G126" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H126" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I126" t="s">
         <v>79</v>
@@ -12833,7 +12833,7 @@
         <v>33</v>
       </c>
       <c r="N126" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O126" t="s">
         <v>49</v>
@@ -12842,25 +12842,25 @@
         <v>293.51350000000002</v>
       </c>
       <c r="Q126" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R126" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S126" t="s">
         <v>66</v>
       </c>
       <c r="T126" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="U126" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="V126" t="s">
         <v>66</v>
       </c>
       <c r="W126" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="X126" t="s">
         <v>187</v>
@@ -12880,7 +12880,7 @@
         <v>32713</v>
       </c>
       <c r="C127" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D127">
         <v>2024</v>
@@ -12892,7 +12892,7 @@
         <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H127" t="s">
         <v>29</v>
@@ -12901,7 +12901,7 @@
         <v>144</v>
       </c>
       <c r="J127" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K127" t="s">
         <v>144</v>
@@ -12922,25 +12922,25 @@
         <v>13575332.5</v>
       </c>
       <c r="Q127" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R127" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S127" t="s">
         <v>66</v>
       </c>
       <c r="T127" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U127" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V127" t="s">
         <v>66</v>
       </c>
       <c r="W127" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X127" t="s">
         <v>187</v>
@@ -12960,7 +12960,7 @@
         <v>32714</v>
       </c>
       <c r="C128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D128">
         <v>2024</v>
@@ -12972,7 +12972,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H128" t="s">
         <v>29</v>
@@ -12981,7 +12981,7 @@
         <v>144</v>
       </c>
       <c r="J128" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K128" t="s">
         <v>144</v>
@@ -13002,25 +13002,25 @@
         <v>42011340.350000001</v>
       </c>
       <c r="Q128" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R128" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S128" t="s">
         <v>66</v>
       </c>
       <c r="T128" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U128" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V128" t="s">
         <v>66</v>
       </c>
       <c r="W128" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X128" t="s">
         <v>187</v>
@@ -13040,7 +13040,7 @@
         <v>32716</v>
       </c>
       <c r="C129" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D129">
         <v>2024</v>
@@ -13052,7 +13052,7 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H129" t="s">
         <v>29</v>
@@ -13061,7 +13061,7 @@
         <v>144</v>
       </c>
       <c r="J129" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K129" t="s">
         <v>144</v>
@@ -13082,25 +13082,25 @@
         <v>24408991.949999999</v>
       </c>
       <c r="Q129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S129" t="s">
         <v>66</v>
       </c>
       <c r="T129" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U129" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V129" t="s">
         <v>66</v>
       </c>
       <c r="W129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X129" t="s">
         <v>187</v>
@@ -13120,7 +13120,7 @@
         <v>32583</v>
       </c>
       <c r="C130" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D130">
         <v>2024</v>
@@ -13132,7 +13132,7 @@
         <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H130" t="s">
         <v>29</v>
@@ -13141,7 +13141,7 @@
         <v>144</v>
       </c>
       <c r="J130" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K130" t="s">
         <v>144</v>
@@ -13162,25 +13162,25 @@
         <v>1250000000</v>
       </c>
       <c r="Q130" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R130" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S130" t="s">
         <v>66</v>
       </c>
       <c r="T130" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U130" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V130" t="s">
         <v>66</v>
       </c>
       <c r="W130" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="X130" t="s">
         <v>187</v>
@@ -13200,7 +13200,7 @@
         <v>25615</v>
       </c>
       <c r="C131" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D131">
         <v>2024</v>
@@ -13212,7 +13212,7 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H131" t="s">
         <v>29</v>
@@ -13221,7 +13221,7 @@
         <v>32</v>
       </c>
       <c r="J131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K131" t="s">
         <v>32</v>
@@ -13233,7 +13233,7 @@
         <v>33</v>
       </c>
       <c r="N131" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O131" t="s">
         <v>49</v>
@@ -13242,31 +13242,31 @@
         <v>64662.180500000002</v>
       </c>
       <c r="Q131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R131" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S131" t="s">
         <v>40</v>
       </c>
       <c r="T131" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U131" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V131" t="s">
         <v>37</v>
       </c>
       <c r="W131" t="s">
+        <v>699</v>
+      </c>
+      <c r="X131" t="s">
         <v>700</v>
       </c>
-      <c r="X131" t="s">
-        <v>701</v>
-      </c>
       <c r="Y131" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AA131" t="s">
         <v>55</v>
@@ -13280,7 +13280,7 @@
         <v>19668</v>
       </c>
       <c r="C132" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D132">
         <v>2024</v>
@@ -13292,7 +13292,7 @@
         <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H132" t="s">
         <v>29</v>
@@ -13322,31 +13322,31 @@
         <v>488.90699999999993</v>
       </c>
       <c r="Q132" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R132" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S132" t="s">
         <v>37</v>
       </c>
       <c r="T132" t="s">
+        <v>704</v>
+      </c>
+      <c r="U132" t="s">
         <v>705</v>
-      </c>
-      <c r="U132" t="s">
-        <v>706</v>
       </c>
       <c r="V132" t="s">
         <v>40</v>
       </c>
       <c r="W132" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X132" t="s">
         <v>187</v>
       </c>
       <c r="Y132" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA132" t="s">
         <v>55</v>
@@ -13360,7 +13360,7 @@
         <v>17721</v>
       </c>
       <c r="C133" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D133">
         <v>2024</v>
@@ -13372,7 +13372,7 @@
         <v>28</v>
       </c>
       <c r="G133" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H133" t="s">
         <v>29</v>
@@ -13381,7 +13381,7 @@
         <v>32</v>
       </c>
       <c r="J133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K133" t="s">
         <v>48</v>
@@ -13402,28 +13402,28 @@
         <v>8457.244999999999</v>
       </c>
       <c r="Q133" t="s">
+        <v>710</v>
+      </c>
+      <c r="R133" t="s">
         <v>711</v>
-      </c>
-      <c r="R133" t="s">
-        <v>712</v>
       </c>
       <c r="S133" t="s">
         <v>40</v>
       </c>
       <c r="T133" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U133" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="V133" t="s">
         <v>37</v>
       </c>
       <c r="W133" t="s">
+        <v>713</v>
+      </c>
+      <c r="X133" t="s">
         <v>714</v>
-      </c>
-      <c r="X133" t="s">
-        <v>715</v>
       </c>
       <c r="Y133" t="s">
         <v>187</v>
@@ -13440,7 +13440,7 @@
         <v>17517</v>
       </c>
       <c r="C134" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D134">
         <v>2024</v>
@@ -13452,7 +13452,7 @@
         <v>28</v>
       </c>
       <c r="G134" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H134" t="s">
         <v>29</v>
@@ -13482,25 +13482,25 @@
         <v>3085.9887500000004</v>
       </c>
       <c r="Q134" t="s">
+        <v>717</v>
+      </c>
+      <c r="R134" t="s">
         <v>718</v>
-      </c>
-      <c r="R134" t="s">
-        <v>719</v>
       </c>
       <c r="S134" t="s">
         <v>37</v>
       </c>
       <c r="T134" t="s">
+        <v>719</v>
+      </c>
+      <c r="U134" t="s">
         <v>720</v>
-      </c>
-      <c r="U134" t="s">
-        <v>721</v>
       </c>
       <c r="V134" t="s">
         <v>40</v>
       </c>
       <c r="W134" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X134" t="s">
         <v>187</v>
@@ -13520,7 +13520,7 @@
         <v>16862</v>
       </c>
       <c r="C135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D135">
         <v>2024</v>
@@ -13532,7 +13532,7 @@
         <v>25</v>
       </c>
       <c r="G135" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H135" t="s">
         <v>29</v>
@@ -13562,31 +13562,31 @@
         <v>3556.5832499999997</v>
       </c>
       <c r="Q135" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R135" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S135" t="s">
         <v>37</v>
       </c>
       <c r="T135" t="s">
+        <v>724</v>
+      </c>
+      <c r="U135" t="s">
         <v>725</v>
-      </c>
-      <c r="U135" t="s">
-        <v>726</v>
       </c>
       <c r="V135" t="s">
         <v>40</v>
       </c>
       <c r="W135" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X135" t="s">
         <v>187</v>
       </c>
       <c r="Y135" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA135" t="s">
         <v>44</v>
@@ -13600,7 +13600,7 @@
         <v>16467</v>
       </c>
       <c r="C136" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D136">
         <v>2024</v>
@@ -13612,7 +13612,7 @@
         <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H136" t="s">
         <v>29</v>
@@ -13621,7 +13621,7 @@
         <v>71</v>
       </c>
       <c r="J136" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K136" t="s">
         <v>32</v>
@@ -13642,25 +13642,25 @@
         <v>3552.2157500000003</v>
       </c>
       <c r="Q136" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R136" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S136" t="s">
         <v>37</v>
       </c>
       <c r="T136" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U136" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="V136" t="s">
         <v>40</v>
       </c>
       <c r="W136" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X136" t="s">
         <v>187</v>
@@ -13680,7 +13680,7 @@
         <v>16468</v>
       </c>
       <c r="C137" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D137">
         <v>2024</v>
@@ -13692,16 +13692,16 @@
         <v>25</v>
       </c>
       <c r="G137" t="s">
+        <v>729</v>
+      </c>
+      <c r="H137" t="s">
+        <v>29</v>
+      </c>
+      <c r="I137" t="s">
         <v>730</v>
       </c>
-      <c r="H137" t="s">
-        <v>29</v>
-      </c>
-      <c r="I137" t="s">
-        <v>731</v>
-      </c>
       <c r="J137" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K137" t="s">
         <v>32</v>
@@ -13722,31 +13722,31 @@
         <v>1065.6647499999999</v>
       </c>
       <c r="Q137" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R137" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S137" t="s">
         <v>37</v>
       </c>
       <c r="T137" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U137" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="V137" t="s">
         <v>40</v>
       </c>
       <c r="W137" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X137" t="s">
         <v>187</v>
       </c>
       <c r="Y137" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AA137" t="s">
         <v>55</v>
@@ -13760,7 +13760,7 @@
         <v>16150</v>
       </c>
       <c r="C138" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D138">
         <v>2024</v>
@@ -13772,7 +13772,7 @@
         <v>24</v>
       </c>
       <c r="G138" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H138" t="s">
         <v>29</v>
@@ -13802,28 +13802,28 @@
         <v>1156.4455</v>
       </c>
       <c r="Q138" t="s">
+        <v>736</v>
+      </c>
+      <c r="R138" t="s">
         <v>737</v>
-      </c>
-      <c r="R138" t="s">
-        <v>738</v>
       </c>
       <c r="S138" t="s">
         <v>40</v>
       </c>
       <c r="T138" t="s">
+        <v>738</v>
+      </c>
+      <c r="U138" t="s">
         <v>739</v>
-      </c>
-      <c r="U138" t="s">
-        <v>740</v>
       </c>
       <c r="V138" t="s">
         <v>37</v>
       </c>
       <c r="W138" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X138" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y138" t="s">
         <v>187</v>
@@ -13840,7 +13840,7 @@
         <v>16096</v>
       </c>
       <c r="C139" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D139">
         <v>2024</v>
@@ -13852,7 +13852,7 @@
         <v>24</v>
       </c>
       <c r="G139" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H139" t="s">
         <v>29</v>
@@ -13882,31 +13882,31 @@
         <v>534.71050000000002</v>
       </c>
       <c r="Q139" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R139" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S139" t="s">
         <v>37</v>
       </c>
       <c r="T139" t="s">
+        <v>744</v>
+      </c>
+      <c r="U139" t="s">
         <v>745</v>
-      </c>
-      <c r="U139" t="s">
-        <v>746</v>
       </c>
       <c r="V139" t="s">
         <v>40</v>
       </c>
       <c r="W139" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="X139" t="s">
         <v>187</v>
       </c>
       <c r="Y139" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AA139" t="s">
         <v>55</v>
@@ -13920,7 +13920,7 @@
         <v>15091</v>
       </c>
       <c r="C140" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D140">
         <v>2024</v>
@@ -13932,7 +13932,7 @@
         <v>23</v>
       </c>
       <c r="G140" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H140" t="s">
         <v>29</v>
@@ -13944,10 +13944,10 @@
         <v>31</v>
       </c>
       <c r="K140" t="s">
+        <v>321</v>
+      </c>
+      <c r="L140" t="s">
         <v>322</v>
-      </c>
-      <c r="L140" t="s">
-        <v>323</v>
       </c>
       <c r="M140" t="s">
         <v>33</v>
@@ -13962,28 +13962,28 @@
         <v>520.48400000000004</v>
       </c>
       <c r="Q140" t="s">
+        <v>750</v>
+      </c>
+      <c r="R140" t="s">
         <v>751</v>
-      </c>
-      <c r="R140" t="s">
-        <v>752</v>
       </c>
       <c r="S140" t="s">
         <v>40</v>
       </c>
       <c r="T140" t="s">
+        <v>752</v>
+      </c>
+      <c r="U140" t="s">
         <v>753</v>
-      </c>
-      <c r="U140" t="s">
-        <v>754</v>
       </c>
       <c r="V140" t="s">
         <v>37</v>
       </c>
       <c r="W140" t="s">
+        <v>754</v>
+      </c>
+      <c r="X140" t="s">
         <v>755</v>
-      </c>
-      <c r="X140" t="s">
-        <v>756</v>
       </c>
       <c r="Y140" t="s">
         <v>187</v>
@@ -14000,7 +14000,7 @@
         <v>14772</v>
       </c>
       <c r="C141" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D141">
         <v>2024</v>
@@ -14012,7 +14012,7 @@
         <v>23</v>
       </c>
       <c r="G141" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H141" t="s">
         <v>29</v>
@@ -14024,10 +14024,10 @@
         <v>127</v>
       </c>
       <c r="K141" t="s">
+        <v>321</v>
+      </c>
+      <c r="L141" t="s">
         <v>322</v>
-      </c>
-      <c r="L141" t="s">
-        <v>323</v>
       </c>
       <c r="M141" t="s">
         <v>33</v>
@@ -14045,25 +14045,25 @@
         <v>129</v>
       </c>
       <c r="R141" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S141" t="s">
         <v>40</v>
       </c>
       <c r="T141" t="s">
+        <v>758</v>
+      </c>
+      <c r="U141" t="s">
         <v>759</v>
-      </c>
-      <c r="U141" t="s">
-        <v>760</v>
       </c>
       <c r="V141" t="s">
         <v>37</v>
       </c>
       <c r="W141" t="s">
+        <v>760</v>
+      </c>
+      <c r="X141" t="s">
         <v>761</v>
-      </c>
-      <c r="X141" t="s">
-        <v>762</v>
       </c>
       <c r="Y141" t="s">
         <v>187</v>
@@ -14080,7 +14080,7 @@
         <v>9582</v>
       </c>
       <c r="C142" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D142">
         <v>2024</v>
@@ -14092,7 +14092,7 @@
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H142" t="s">
         <v>29</v>
@@ -14104,10 +14104,10 @@
         <v>192</v>
       </c>
       <c r="K142" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L142" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M142" t="s">
         <v>33</v>
@@ -14122,28 +14122,28 @@
         <v>550</v>
       </c>
       <c r="Q142" t="s">
+        <v>765</v>
+      </c>
+      <c r="R142" t="s">
         <v>766</v>
-      </c>
-      <c r="R142" t="s">
-        <v>767</v>
       </c>
       <c r="S142" t="s">
         <v>40</v>
       </c>
       <c r="T142" t="s">
+        <v>767</v>
+      </c>
+      <c r="U142" t="s">
         <v>768</v>
-      </c>
-      <c r="U142" t="s">
-        <v>769</v>
       </c>
       <c r="V142" t="s">
         <v>37</v>
       </c>
       <c r="W142" t="s">
+        <v>769</v>
+      </c>
+      <c r="X142" t="s">
         <v>770</v>
-      </c>
-      <c r="X142" t="s">
-        <v>771</v>
       </c>
       <c r="Y142" t="s">
         <v>187</v>
@@ -14160,7 +14160,7 @@
         <v>9582</v>
       </c>
       <c r="C143" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D143">
         <v>2024</v>
@@ -14172,7 +14172,7 @@
         <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H143" t="s">
         <v>29</v>
@@ -14184,10 +14184,10 @@
         <v>192</v>
       </c>
       <c r="K143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L143" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M143" t="s">
         <v>33</v>
@@ -14202,28 +14202,28 @@
         <v>550</v>
       </c>
       <c r="Q143" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R143" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S143" t="s">
         <v>40</v>
       </c>
       <c r="T143" t="s">
+        <v>767</v>
+      </c>
+      <c r="U143" t="s">
         <v>768</v>
-      </c>
-      <c r="U143" t="s">
-        <v>769</v>
       </c>
       <c r="V143" t="s">
         <v>37</v>
       </c>
       <c r="W143" t="s">
+        <v>769</v>
+      </c>
+      <c r="X143" t="s">
         <v>770</v>
-      </c>
-      <c r="X143" t="s">
-        <v>771</v>
       </c>
       <c r="Y143" t="s">
         <v>187</v>
@@ -14240,7 +14240,7 @@
         <v>9003</v>
       </c>
       <c r="C144" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D144">
         <v>2024</v>
@@ -14252,7 +14252,7 @@
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H144" t="s">
         <v>29</v>
@@ -14264,10 +14264,10 @@
         <v>31</v>
       </c>
       <c r="K144" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L144" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M144" t="s">
         <v>33</v>
@@ -14282,25 +14282,25 @@
         <v>2468.25</v>
       </c>
       <c r="Q144" t="s">
+        <v>774</v>
+      </c>
+      <c r="R144" t="s">
         <v>775</v>
-      </c>
-      <c r="R144" t="s">
-        <v>776</v>
       </c>
       <c r="S144" t="s">
         <v>40</v>
       </c>
       <c r="T144" t="s">
+        <v>776</v>
+      </c>
+      <c r="U144" t="s">
         <v>777</v>
-      </c>
-      <c r="U144" t="s">
-        <v>778</v>
       </c>
       <c r="V144" t="s">
         <v>37</v>
       </c>
       <c r="W144" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="X144" t="s">
         <v>167</v>
@@ -14320,7 +14320,7 @@
         <v>4449</v>
       </c>
       <c r="C145" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D145">
         <v>2024</v>
@@ -14332,16 +14332,16 @@
         <v>8</v>
       </c>
       <c r="G145" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H145" t="s">
         <v>29</v>
       </c>
       <c r="I145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J145" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K145" t="s">
         <v>32</v>
@@ -14353,40 +14353,40 @@
         <v>33</v>
       </c>
       <c r="N145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O145" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="P145">
         <v>375</v>
       </c>
       <c r="Q145" t="s">
+        <v>781</v>
+      </c>
+      <c r="R145" t="s">
         <v>782</v>
-      </c>
-      <c r="R145" t="s">
-        <v>783</v>
       </c>
       <c r="S145" t="s">
         <v>37</v>
       </c>
       <c r="T145" t="s">
+        <v>783</v>
+      </c>
+      <c r="U145" t="s">
         <v>784</v>
-      </c>
-      <c r="U145" t="s">
-        <v>785</v>
       </c>
       <c r="V145" t="s">
         <v>40</v>
       </c>
       <c r="W145" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="X145" t="s">
         <v>187</v>
       </c>
       <c r="Y145" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA145" t="s">
         <v>55</v>
@@ -14400,7 +14400,7 @@
         <v>17517</v>
       </c>
       <c r="C146" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D146">
         <v>2024</v>
@@ -14412,7 +14412,7 @@
         <v>28</v>
       </c>
       <c r="G146" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H146" t="s">
         <v>29</v>
@@ -14421,7 +14421,7 @@
         <v>32</v>
       </c>
       <c r="J146" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K146" t="s">
         <v>32</v>
@@ -14442,25 +14442,25 @@
         <v>3085.9887500000004</v>
       </c>
       <c r="Q146" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R146" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S146" t="s">
         <v>37</v>
       </c>
       <c r="T146" t="s">
+        <v>719</v>
+      </c>
+      <c r="U146" t="s">
         <v>720</v>
-      </c>
-      <c r="U146" t="s">
-        <v>721</v>
       </c>
       <c r="V146" t="s">
         <v>40</v>
       </c>
       <c r="W146" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X146" t="s">
         <v>187</v>
